--- a/news_data/2020_05.xlsx
+++ b/news_data/2020_05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,18 +22,99 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 외국인 관광객 99%↓…롯데·신라면세점 ‘휴점’</t>
+  </si>
+  <si>
+    <t>제주도, 관광업체 코로나19 자체방역 점검결과 '이상무'</t>
+  </si>
+  <si>
+    <t>제주도관광지추천 '제주이야기' 천연 꽃 향수로 만드는 체험관광코스</t>
+  </si>
+  <si>
+    <t>제주도 관광지에 자율주행 셔틀버스 달린다</t>
+  </si>
+  <si>
+    <t>제주도 6차산업 ‘협업’…농촌관광상품 개발·판로 확대</t>
+  </si>
+  <si>
+    <t>제주도, 생활방역 속 문화유산 관광...'설화와 자연의 길' 선보인다</t>
+  </si>
+  <si>
+    <t>'포스트 코로나19'…제주도 힐링·생태 관광 키운다</t>
+  </si>
+  <si>
+    <t>제주도관광약자접근성안내센터, 여행작가 추가모집</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 사랑나눔 봉사활동 전개</t>
+  </si>
+  <si>
+    <t>제주도하면 치킨??...제주관광객 가장 많이 찾는 장소 '치킨' 꼽혀</t>
+  </si>
+  <si>
+    <t>제주도관광협회 21일 구좌읍 동복리 마늘농가 일손돕기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 코로나19 착한 음식점 캠페인</t>
+  </si>
+  <si>
+    <t>제주도 문화체육관광부 지정 열린관광지 선정</t>
+  </si>
+  <si>
+    <t>관광객 20만 몰린 제주도, 사회적 거리두기 2주 연장 전망</t>
+  </si>
+  <si>
+    <t>황금연휴 기간 관광객 19만6138명 제주도 찾았다</t>
+  </si>
+  <si>
+    <t>"관광객 60%만 마스크"…제주도, 연휴동안 방문객 13만명 달해</t>
+  </si>
+  <si>
+    <t>김태석 제주도의회 의장 "방역·관광 공존시스템 구축해야"</t>
+  </si>
+  <si>
+    <t>제주도 관광협회 "입도 관광객 3만 명 가까이 증가"</t>
+  </si>
+  <si>
+    <t>마스크 벗는 관광객들···북적이는 제주도 방역 비상</t>
+  </si>
+  <si>
+    <t>황금연휴 제주도 관광객 20만명 전망…방역당국 초긴장</t>
+  </si>
+  <si>
+    <t>제주도 생태관광 활성화 집중 투자</t>
+  </si>
+  <si>
+    <t>제주도, 이달 말 오라관광단지사업 심의 예정</t>
+  </si>
+  <si>
+    <t>관광객 끊긴 제주도, 서비스업 생산·소매판매 하락률 '역대 최대'</t>
+  </si>
+  <si>
+    <t>중문관광단지 맛집 색달식당, 갈치조림으로 제주도 향토의 맛 전하고파</t>
+  </si>
+  <si>
+    <t>[Pick] 황금연휴에 제주도 모여든 16만…"관광객 60%만 마스크 착용"</t>
+  </si>
+  <si>
+    <t>제주도, '연휴 특수' 관광지 방역대응 비상상황실 가동</t>
+  </si>
+  <si>
+    <t>황금연휴 첫날, 제주도 관광객이 가장 몰린 곳은 ‘한라산’</t>
+  </si>
+  <si>
+    <t>제주도, 소상공인·관광시설 등에 하천 점용료 감면에 나서</t>
+  </si>
+  <si>
+    <t>제주도, 소상공인, 관광시설 등에 하천 점용료 감면에 나서</t>
+  </si>
+  <si>
+    <t>JDC, 황금연휴 제주도 관광객 '코로나19' 확산 방지 위한 손세정제 배포</t>
+  </si>
+  <si>
     <t>제주도, 생태관광 활성화를 위한 각종 사업 본격 시행...52억 투입</t>
   </si>
   <si>
-    <t>제주도, 소상공인·관광시설 등에 하천 점용료 감면에 나서</t>
-  </si>
-  <si>
-    <t>제주도, 소상공인, 관광시설 등에 하천 점용료 감면에 나서</t>
-  </si>
-  <si>
-    <t>JDC, 황금연휴 제주도 관광객 '코로나19' 확산 방지 위한 손세정제 배포</t>
-  </si>
-  <si>
     <t>'황금연휴' 시작되자 관광객으로 꽉 찬 강원도 '동해바다·제주도' 실시간 상...</t>
   </si>
   <si>
@@ -52,25 +133,103 @@
     <t>제주도 중문관광단지 맛집 ‘기원뚝배기’, 입소문 난 제주산 문어해물갈치조...</t>
   </si>
   <si>
-    <t>제주도, 생태관광 활성화를 위한 각종 사업 본격 시행...52억 투입 &lt; 환경 &lt; 산업 &lt; 기사본문 - 그린데일리 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 검색 기사검색 검색 디지털자산 산업 금융·증권 건설·부동산 중기·벤처 라이프 채널가이드 프로그램 편성표 채널안내 커뮤니티 공지사항 전체서비스 디지털자산 산업 정책 환경 신재생에너지 전력·원자력 석유·가스 금융·증권 건설·부동산 중기·벤처 라이프 최종편집:2022-10-04 10:19 (화) 실시간 10월 4일 디지털자산 주요뉴스 "올해 무역수지 적자 480억달러 전망...역대 최악" 손정의 회장 방한...이재용과 ARM 논의할 듯 현대중공업 울산조선소, 10톤 타워크레인 전복 휘발유 가격 7개월만에 '1600원대' 전기·가스 요금 이달부터 동시 인상...내년에 더 오를 듯 KH그룹 "알펜시아리조트, 헐값매각·특혜의혹 사실 무근" 전국우수시장박람회 열려...전통시장 100여개 점포 참여 한수원, ‘사용후핵연료 건식 저장시설’ 건립 추진 애매한 '재계 5위' ... 그 자리 놓고 각축전 전개되나 로그인 광고문의 제보 사고·공지 본문영역 이전 기사보기 다음 기사보기 제주도, 생태관광 활성화를 위한 각종 사업 본격 시행...52억 투입 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 환경 제주도, 생태관광 활성화를 위한 각종 사업 본격 시행...52억 투입 기자명 길윤웅 기자 입력 2020.05.10 19:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도가 사업비 52억원을 투입해 제주 생태관광 활성화를 위한 각종 사업을 본격 시행한다.(사진=제주도 제공) 제주도는 총 52억원을 투입해 제주 생태관광 활성화 사업을 본격 시행한다고 10일 밝혔다.도는 사업수행을 위해 우선 사단법인 생태관광협회에 생태관광 육성·지원사업을 위탁해 생태관광에 관심있는 누구나 쉽게 참여할 수 있는 서비스 체계 구축에 나선다. 지난달 '도 생태관광 육성 및 지원 조례' 개정·공포로 생태관광 인증제 추진 근거 마련으로 환경부 지정 생태관광지역인 동백동산 습지, 효돈천·하례리 마을, 저지오름·곶자왈 등에 대한 생태관광인증도 시범 도입할 예정이다..대정~남원 중산간 관광벨트 조성사업은 지난해부터 추진해 온 사업으로, 조사된 자원을 활용한 주민 주도의 시범 운영으로 주민 참여, 환경 보전, 복지 향상의 3박자가 맞는 생태관광 실현 수 있도록 추진한다는 방침이다. 박근수 도 환경보전국장은 "코로나19 상황에서 제주 생태관광이 심리적 피로감 회복과 우울감 해소 등 다양한 긍정적 효과를 가져올 것으로 기대한다"고 밝혔다.길윤웅 기자 (dodori@greendaily.co.kr) 길윤웅 기자 dodori@greendaily.co.kr 다른기사 보기 저작권자 © 그린데일리 무단전재 및 재배포 금지 당신만 안 본 뉴스 [단독] 토스, 환전서비스 오류...25분간 1달러 1290원대로 환전 대기업집단 '젤 막내' 농심, 3개로 쪼개지나 애매한 '재계 5위' ... 그 자리 놓고 각축전 전개되나 대우조선 삼킨 김승연...그가 정작 노리는 것은 현대중공업 울산조선소, 10톤 타워크레인 전복 '벼랑 끝 '홍원식 남양유업 회장 ... 마지막 수는 있나 손정의 회장 방한...이재용과 ARM 논의할 듯 [단독] 토스, 환전서비스 오류...25분간 1달러 1290원대로 환전 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 10월 4일 디지털자산 주요뉴스 "올해 무역수지 적자 480억달러 전망...역대 최악" 손정의 회장 방한...이재용과 ARM 논의할 듯 현대중공업 울산조선소, 10톤 타워크레인 전복 휘발유 가격 7개월만에 '1600원대' 전기·가스 요금 이달부터 동시 인상...내년에 더 오를 듯 ▪ Reader's Pickup 1 [단독] 토스, 환전서비스 오류...25분간 1달러 1290원대로 환전 2 대기업집단 '젤 막내' 농심, 3개로 쪼개지나 3 애매한 '재계 5위' ... 그 자리 놓고 각축전 전개되나 4 대우조선 삼킨 김승연...그가 정작 노리는 것은 5 현대중공업 울산조선소, 10톤 타워크레인 전복 ESG·CSR 하림, 소비자 봉사단&amp;대학생 서포터즈와 ‘에코 챌린지’ 캠페인 진행 SK텔레콤-환경부-서울시-커피 체인점, ‘다회용 컵 이용’ 맞손 친환경포장기술시험연구원, 과대포장 검사 전문기관으로 지정 포토·영상 여름막바지까지 안정적 전력 공급에 만전을 기한다 “폭염 속 전력수급 차질없도록” 멸종위기 참달팽이 홍도에 첫 방사 입에서 담배냄새 나지 않는 기능 적용한 ‘에쎄 이츠 딥브라운’ “바다의 상처 외면하지 마세요” 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 서울특별시 서초구 강남대로37길 49 (서초동, 애서니움빌딩) 3층 대표이사·발행인 : 구원모 편집인 : 박상대 제호 : 그린데일리 등록번호 : 서울 아 01192 등록일 : 2010-04-01 발행일 : 2010-02-01 청소년보호책임자 : 박상대 엔비엔뉴스(NBN News)의 모든 콘텐츠(영상/기사/사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금지합니다. Copyright © 2022 엔비엔뉴스(NBN News). All rights reserved. mail to editor@greendaily.co.kr 위로 전체메뉴 전체기사 디지털자산 산업 전체 정책 환경 신재생에너지 전력·원자력 석유·가스 금융·증권 건설·부동산 중기·벤처 라이프 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 소상공인·관광시설 등에 하천 점용료 감면에 나서 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-04 10:31 (화) 실시간 뉴스 교황, 푸틴 핵 위협에 "전쟁 멈출 것" 경고 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 문송희, ‘사랑나눔자선콘서트’ 화려한 오프닝 공연 예고 아이피샵, 2022 광주국제아트페어 참여 김해 민간 장기 임대아파트 '용두지구 성원상떼빌' 분양 코요태 빽가, 지석진과 한솥밥 먹는다...컴백 일정은? [이만수의 야구 이야기] 꿈에 그리던 동남아시아 야구 대회 개최 오에스피 공모주 청약일정·수요예측·상장일은? '공모가 8400원 확정' HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 291호(2022-09) 작은 승리 거둔 이준석 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 소상공인·관광시설 등에 하천 점용료 감면에 나서 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 소상공인·관광시설 등에 하천 점용료 감면에 나서 기자명 김광수 기자 입력 2020.05.07 09:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 코로나19 감염증 확산에 따른 업계 지원을 위해 하천 점용료 3개월분 감면 제주특별자치도 [시사매거진/제주=김광수 기자] 제주특별자치도는 코로나19로 경제적 어려움을 겪는 있는 개인·소상공인을 지원하기 위하여 하천 점용료 3개월분을 감면한다고 밝혔다. 하천점용료는 제주도가 지방하천 내 하천 토지와 시설물을 사용하기 위하여 하천 점용허가를 받은 자에게 1년 치를 부과·징수하는 것으로써 재해나 특별한 사정이 있을 경우 감면이 가능하도록 되어 있다. 기존에는 「하천법」상 “홍수 등 자연재해”에서만 감면받았으나 금번 코로나19에도 확대·적용하게 되어 영업상 어려움을 겪고 있는 민간 사업자에게 경제적인 부담을 줄일 수 있게 됐다. 감면 대상으로는 레저스포츠, 식당, 음식점 등 지방하천 점용 허가를 받아 이용하는 민간사업자로서 감면규모는 하천 점용료 1년 치 중 3개월 분(25%)이며 이미 부과·징수된 경우에도 실제 부과액에 대하여 소급하여 금액을 반환 받을 수 있다. 또한, 하천 및 공유수면에 위치한 전통시장에 대해서도「전통시장특별법」에 따라 화재뿐만 아니라 코로나19에도 적용하여 재해에 의해서도 사용료를 면제 받을 수 있게 됐다. 이번 하천점용료 감면은 코로나19로 인하여 경제적 직접 타격을 입은 소상공인과 자영업자의 매출 감소를 보전하기 위한 지원책으로써 감면액만큼 고정비용 부담 완화 효과가 있을 것으로 기대된다. 이중환 제주특별자치도 도민안전실장은 “코로나19 예방을 위한 ‘사회적 거리두기’로 영업상 큰 어려움을 겪고 있는 민간 사업자분들이 이번 하천점용료 감면 정책으로 조금이나마 경제적인 보탬이 되길 바란다.”고 말했다. 김광수 기자 sipong666@naver.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 상생소비복권 '당첨자발표일' 제외업종 공개 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 주요기사 정부조직 개편안 조만간 발표...여가부 폐지 중점 논의 [오늘날씨] 일본기상청 '첫눈·상현 반월' 서울날씨 '19도 기온뚝' 비소식, 2022년 단풍시기·명소 정진석 "국정동력 확보 위해 정부 조직개편 논의해야" 尹정부 첫 국정감사 4일 개막...여야 격돌 전망 여야, 감사원 '文 서면조사' 요구 놓고 공방 격화 [속보]러시아, 우크라이나 전쟁 중 핵 사용할까 '서방 경계심 강화' 최신뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 포토뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 인기뉴스 1 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 2 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? 3 '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 4 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 5 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 6 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 7 상생소비복권 '당첨자발표일' 제외업종 공개 8 애플 아이폰14·PRO 통신 3사 사전예약 혜택·가격·출시일·색상 화제 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 소상공인, 관광시설 등에 하천 점용료 감면에 나서 &lt; 정치/행정 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-04 10:37 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 소상공인, 관광시설 등에 하천 점용료 감면에 나서 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치/행정 제주도, 소상공인, 관광시설 등에 하천 점용료 감면에 나서 기자명 허태홍 기자 입력 2020.05.06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도는 코로나19로 경제적 어려움을 겪는 있는 개인·소상공인을 지원하기 위하여 하천 점용료 3개월분을 감면한다고 6일 밝혔다. 하천점용료는 제주도가 지방하천 내 하천 토지와 시설물을 사용하기 위하여 하천 점용허가를 받은 자에게 1년 치를 부과·징수하는 것으로써 재해나 특별한 사정이 있을 경우 감면이 가능하도록 되어 있다. 감면 대상으로는 레저스포츠, 식당, 음식점 등 지방하천 점용 허가를 받아 이용하는 민간사업자로서 감면규모는 하천 점용료 1년 치 중 3개월 분(25%)이며 이미 부과·징수된 경우에도 실제 부과액에 대하여 소급하여 금액을 반환 받을 수 있다. 또한, 하천 및 공유수면에 위치한 전통시장에 대해서도 '전통시장특별법'에 따라 화재뿐만 아니라 코로나19에도 적용하여 재해에 의해서도 사용료를 면제 받을 수 있게 됐다. 허태홍 기자 black4t@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 포토뉴스 대신여성의용소방대, 소화전·호스릴 비상소화장치 점검 도내 미취업청년 8365명에 42억원 재난지원금 지급 대신여성의용소방대, 소화전‧호스릴 비상소화장치 점검 2021년 제주관광수입 6조3402억 원 추계 인기뉴스 1 서귀포예술의전당, ‘빛이 머무는 곶’전(展) 개최 2 막바지 국비예산 확보에 더욱 진력해야 3 제주도, 중증장애인아동 돌봄 지원 960시간으로 확대 4 “제주, 누구도 가보지 않은 새로운 길 도전한다” 5 삼매봉도서관 10월 5일 재개관 6 “토지세가 너무 많이 나왔어요” 7 제주 관광 전세 버스는 달리고 싶은데… “기사가 없어요” 8 제주 4일 최대 30㎜ 비…5일 찬바람 ‘주의’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>JDC, 황금연휴 제주도 관광객 '코로나19' 확산 방지 위한 손세정제 배포 &lt; 라이프 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-04 10:40 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 JDC, 황금연휴 제주도 관광객 '코로나19' 확산 방지 위한 손세정제 배포 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 JDC, 황금연휴 제주도 관광객 '코로나19' 확산 방지 위한 손세정제 배포 기자명 정기환 기자 입력 2020.05.03 13:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 도내 입도객 및 도민 대상 손세정제 10,000개 나눠 ▲ 사진= JDC는 지난달 30일부터 5월 2일까지 제주국제공항에서 황금연휴 기간 코로나19 확산 방지를 위해 입도 관광객 및 도민 등 10,000명을 대상으로 손세정제를 배포했다 © JDC 제공[투어타임즈=정기환기자] 제주국제자유도시개발센터(이사장 문대림, JDC)는 황금연휴 기간 지역사회 코로나19 확산을 방지하기 위해 손세정제 10,000개를 배포했다고 3일 밝혔다. 이달 말부터 5월 초까지 이어지는 황금 연휴 기간 약 18만명의 관광객이 제주를 찾을 것으로 전망돼 JDC는 코로나19 지역사회 전파를 차단하기 위해 손세정제 배포하는 캠페인을 추진하게 됐다. ▲ 사진= JDC는 지난달 30일부터 5월 2일까지 제주국제공항에서 황금연휴 기간 코로나19 확산 방지를 위해 입도 관광객 및 도민 등 10,000명을 대상으로 손세정제를 배포했다 © JDC 제공이번 캠페인은 지난달 30일부터 5월 2일까지 제주국제공항에서 입도 관광객 및 도민 등 10,000명을 대상으로 시행됐다. 한편, JDC는 어린이날을 맞아 도내 지역아동센터 66개소를 대상으로 간식거리를 제공하는 행사를 4일 추진할 예정이다. ▲ 사진= JDC는 지난달 30일부터 5월 2일까지 제주국제공항에서 황금연휴 기간 코로나19 확산 방지를 위해 입도 관광객 및 도민 등 10,000명을 대상으로 손세정제를 배포했다 © JDC 제공강승수 JDC 경영기획본부장은 “입도객들을 대상으로 한 손세정제 배포가 도내 코로나19 확산 방지에 도움이 되기를 바란다”며 “앞으로도 JDC는 지역사회에 다양한 나눔활동을 확대할 수 있도록 노력하겠다”고 말했다. ▲ 사진= JDC는 지난달 30일부터 5월 2일까지 제주국제공항에서 황금연휴 기간 코로나19 확산 방지를 위해 입도 관광객 및 도민 등 10,000명을 대상으로 손세정제를 배포했다 © JDC 제공&lt;정기환 기자 jeong9200@sundog.kr&gt; 정기환 기자 jeong9200@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>‘황금연휴’ 시작되자 관광객으로 꽉 찬 강원도 ‘동해바다·제주도’ 실시간 상황 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 20℃ 서울 17℃ 인천 20℃ 춘천 17℃ 강릉 19℃ 수원 18℃ 청주 19℃ 대전 17℃ 전주 19℃ 광주 23℃ 대구 24℃ 부산 20℃ 제주 '황금연휴' 시작되자 관광객으로 꽉 찬 강원도 '동해바다·제주도' 실시간 상황 최장 6일의 황금연휴가 시작되자 우려했던 대로 관광지에 인파가 몰렸다. 김소영 기자 입력 2020.05.01 10:04 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 황금연휴 첫날 강릉항 주차장 만차 / 뉴시스[인사이트] 김소영 기자 = '제발 놀러 오지 말아 주세요'라는 호소가 무색하게도 연휴를 맞아 주요 관광지에는 인파가 북적였다.사회적 거리두기 지침이 있지만 코로나19 사태 장기화로 수 달째 사실상 고립됐던 시민들은 날이 풀리자 저마다의 방법으로 야외에서 연휴를 즐기고 있다.제주도에는 약 18만여 명이 방문할 것으로 예상되고, 속초와 강릉 지역은 숙박시설 예약률이 97%에 육박했다.지난달 30일과 1일 해안가의 풍경은 이런 예상이 적중했다는 것을 보여줬다.초여름 날씨에 바닷가 놀러 온 관광객들 / 뉴시스부처님 오신 날이자 최장 6일의 황금연휴가 시작된 첫날인 30일 강원 강릉시 견소동 강릉항 인근에는 텐트나 돗자리를 깔고 연휴를 즐기는 관광객이 즐비했다.안목 커피거리 일대도 여행객들로 붐볐다. 인근 주차장 역시 나들이 인파가 몰고 온 차량으로 꽉 찼다.제주도 상황도 비슷했다. 제주시 협재해수욕장은 관광객들로 인산인해를 이뤘다.초여름 날씨에 충남 태안군 몽산포 해수욕장 역시 가족, 연인 단위 여행객들이 찾아왔다.한편 질병관리본부는 황금연휴에 만약 여행을 떠난다면 2m 거리두기, 마스크 착용, 손 씻기 등 방역 수칙을 철저히 지켜줄 것을 당부했다.초여름 날씨에 바닷가 놀러 온 관광객들 / 뉴시스초여름 날씨 제주, 관광객 가득한 바다충남 태안군 몽산포 해수욕장 / 뉴스1 김소영 기자 · soyoung@insight.co.kr 베스트클릭 방송·드라마 “내 딸은 못 준다”...김지민 없는 사이 쓰레기장으로 변한 김준호의 충격적인 집상태 방송·드라마 임신 후 ‘27kg’ 찐 소이현에게 남편 인교진이 매일 해준 말...모든 여자를 울렸다 방송·드라마 6년 만난 전남친은 모르는데 2일 만난 썸남은 기억하는 ‘환연2’ 여자 출연자의 식성 사회 오늘(1일)은 20대 청춘을 바쳐 나라 지킨 군인들을 위한 '국군의날' 입니다 국제 스몰웨딩 한다며 ‘코스트코’ 음식 100만원 어치로 피로연 뷔페 준비한 커플 사회 윤석열 대통령, ‘마약과의 전쟁’ 선포하고 대규모 소탕 작업 벌인다 스타 돈스파이크, 2010년에도 마약으로 ‘징역’ 1년형...“직접 대량 구매해 주변에 무료나눔” 사회 검사가 자기 ‘성관계 영상’ 봤다며 억울해한 이은해...검찰은 이렇게 반응했다 연예 최진실 14주기 맞아 묘소 찾은 최준희...오빠 최환희에 갑자기 ‘일침’ 날렸다 스포츠 부진 빠진 FC서울 선수들에 '욕설' 날리는 팬들과 충돌한 기성용..."개XX까지 나왔다" 연예 최진실 14주기 맞아 묘소 찾은 최환희...“준희는 교통사고로 입원” 방송·드라마 남녀 출연자들이 하룻밤 같이 자는 ‘29금’ 연애 리얼리티 나왔다 국제 “히잡 쓰지 않겠다”...시위 참여한 23살 유명 틱톡커, 1시간 만에 총 맞아 결국 사망 비디오 입대 앞두고 전역일 봤다가 눈앞이 캄캄해진 BJ 저라뎃의 찐 반응 (영상) 연예 “E열 3, 4번 누구랑 봤을까요?” 전남친 나오는 영화 ‘공조2’ 관람 인증한 손예진 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 “내 딸은 못 준다”...김지민 없는 사이 쓰레기장으로 변한 김준호의 충격적인 집상태 임신 후 ‘27kg’ 찐 소이현에게 남편 인교진이 매일 해준 말...모든 여자를 울렸다 6년 만난 전남친은 모르는데 2일 만난 썸남은 기억하는 ‘환연2’ 여자 출연자의 식성 오늘(1일)은 20대 청춘을 바쳐 나라 지킨 군인들을 위한 '국군의날' 입니다 스몰웨딩 한다며 ‘코스트코’ 음식 100만원 어치로 피로연 뷔페 준비한 커플 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
-  </si>
-  <si>
-    <t>2020년 황금연휴,‘ 해외여행 대체지..황금연휴 기간 관광수익 628억 원 예상..제주도 관광지 추천 10선은? - 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media × 블록체인&amp;정책 전체 블록체인&amp;정책 블록체인&amp;산업 전체 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 전체 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 코인코드 스팟 코인니스 스팟 E&amp;경제·산업 전체 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 전체 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 전체 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 전체 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 투데이단신 전체 투데이단신 정치&amp;정책 비즈&amp;컬쳐 오늘의 데이터 분석 UPDATED. 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 전체 블록체인&amp;정책 블록체인&amp;정책 블록체인&amp;산업 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 E&amp;경제·산업 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 기사검색 검색 이전 다음 2020년 황금연휴,‘ 해외여행 대체지..황금연휴 기간 관광수익 628억 원 예상..제주도 관광지 추천 10선은? 기사공유하기 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 투데이단신 비즈&amp;컬쳐 2020년 황금연휴,‘ 해외여행 대체지..황금연휴 기간 관광수익 628억 원 예상..제주도 관광지 추천 10선은? 김태연 기자 승인 2020.05.01 13:35 댓글 0 기사공유하기 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 2020년 황금연휴,‘ 해외여행 대체지..황금연휴 기간 관광수익 628억 원 예상..제주도 관광지 추천 10선은? 제주특별자치도와 제주관광공사(사장 박홍배)는 ‘2020년 황금연휴 제주여행 계획 설문조사’ 결과를 발표했다. 조사 결과, 이번 황금연휴 기간(4/30 ~ 5/5)에 제주여행을 선택한 이유는 ‘해외여행 대체지로 적절해서’가 56.1%로 가장 많은 비중을 차지하였으며, 그 다음으로 ‘청정한 자연환경‘(35.3%)의 응답률이 높았다. 이밖에도 ’관광 편의성‘(27.4%), ’전염병 안전지역‘(22.5%), ‘관광활동의 다양성’(21.4%), ‘여행비용’(20.2%) 등을 제주선택의 이유로 꼽았다. 이번 여행에서 특별히 우려되는 점으로는 ‘밀집된 공간에서의 실내감염’(67.4%)이 가장 많았으며, ‘공항/비행기/항만/선박에서의 감염 우려’(57.1%)가 그 뒤를 이었다. 이어서 ‘숙박업소 위생상태’(25.1%), ‘음식점 위생상태’(14.8%), ‘관광지 위생상태’(13.7%), ‘이동수단 위생상태’(13.2%)를 우려하고 있는 것으로 나타났다. 제주여행의 예상 체류기간은 평균 3.86일로 답했으며, 1인당 지출 비용(항공료 제외)은 평균 350,750원을 예상하는 것으로 나타났다. 이번 연휴기간 동안 ‘17만 9000명’의 관광객이 제주를 찾는다고 가정하면, 약 628억 원이 제주에서 소비될 것으로 예상된다. 주요 교통수단으로는 렌터카(89.1%)가 압도적으로 높은 수치를 기록하였으며, 버스(6.4%), 택시(2.8%), 전세버스(1.1%)가 뒤를 이었다. 여행 동반자는 가족/친지(56.8%), 연인(18.5%), 친구(15.2%), 혼자(8.4%), 직장동료(1.1%) 순으로 나타났다. 방문 예정 지역으로 성산일출봉을 선택한 비율이 53.8%로 가장 높았으며, 오름/한라산 38.5%, 우도 35.3%, 중문관광단지 34.1%, 곽지-한담해변(애월읍) 31.8%, 이중섭거리/서귀포올레시장 28.7%, 협재-금릉해변(한림읍) 26.2%, 용담해안도로 인근 25.9%, 마을관광(저지리, 가시리 등) 24.0%, 함덕해변(조천읍) 23.9%, 월정-세화해변(구좌읍) 20.5%, 표선해변(표선면) 14.6% 순으로 나타났다. 제주여행에서의 선호활동으로는 식도락(61.6%)과 자연경관 감상(58.9%)이 1, 2위를 차지했으며, 산/오름/올레 트레킹(47.8%), 호캉스(46.7%), 박물관/테마공원 방문(22.5%)가 뒤를 이었다. 예년과 달리 야외활동을 즐기려는 사람이 증가한 것이 특징이다. ‘2019년 제주 방문관광객 실태조사’ 결과, 4월, 5월 선호활동으로 각각44.0%, 46.5%로 1위를 차지한 ‘박물관/테마공원 방문’이 이번 조사에서 22.5%로 낮은 수치를 보이고, 지난해 4월, 5월 낮은 수치를 보인  ‘자연경관 감상’(4월 5.7%, 5월 12.4%)과 ‘산/오름/올레 트레킹’(4월 22.3%, 5월 18.2%)이 각각  58.9%, 47.8%의 높은 수치를 보인 것은 ‘밀집된 공간에서의 실내감염’에 대한 우려가 실외활동 선호로 이어진 것으로 분석된다. 제주관광공사 연구조사센터 관계자는 “코로나 19로 인한 밀집된 공간 기피, 야외활동 선호, 시설 위생상태 고려 등이 여행 트렌드에도 당분간 영향을 미칠 것”이라고 설명하며, “향후 변화하는 여행 트렌드를 지속적으로 진단하고 파악해 나갈 예정”이라고 밝혔다. 아래는 지난 2월에 제주관광공사가 내놓은 제주 관광 추천지 10선 내용이다. 제주관광공사(사장 박홍배)는 20일 ‘2월 제주, 먼저 온 봄기운에 마음 돌랑돌랑’이라는 테마를 주제로 자연, 축제, 관광지, 음식 등 다양한 분야에서 놓치지 말아야 할 2020년 2월 제주 관광 추천 10선을 발표했다. 1. 가장먼저 제주에서, 마음모아 봄을 열다 – 탐라국입춘굿축제, 칠머리당영등굿 제주의 봄을 여는 축제 하나, 탐라국 입춘굿 축제. 낭쉐(나무로 만든 소)를 끌며 한해의 풍년과 안녕을 기원하던 의미와 역사 담긴 이 행사는 제주도가 꼽은 올해의 최우수 축제. 본행사가 진행되는 2~4일, 제주목관아와 제주시 일대에 거리굿, 열림굿, 입춘굿이 차례로 펼쳐지며 입춘 춘첩쓰기, 솟대・전통가면 만들기 같은 체험과 민속놀이, 향토음식 나눔 등도 마련된다. 바람의 섬 제주에는 바람의 신에 대한 특별한 믿음이 전해온다. 음력 2월 초하루 서쪽해안으로 들어와 보름께 동쪽으로 나가기까지, 제주 구석구석 땅과 바다에 씨앗을 뿌리는 영등할망에게 풍요와 무사안녕을 비는 것. 그 대표격인 제주 칠머리당 영등굿은 유네스코 인류무형문화유산에 등재되어 있다. 올해 영등 드는 날 환영제는 2월 24일, 송별제는 3월 8일에 열릴 예정. 함께 봄을 부르며 더불어 풍요로워지는 특별한 시간이 곧 모두에게 다가온다. 2. 돋아난 봄기운에 두근두근 나의 봄날 – 매화축제 아직 뻣뻣한 나뭇가지를 뚫고 비죽 솟은 꽃봉오리. 그 작지만 은근하고 강한 힘이야말로 예로부터 칭송받아온 매화의 인기비결인지 모른다. 가장 먼저 봄을 가져오겠다는 듯, 추위에도 아랑곳 않고 제 길을 걷는 매화는 훈풍 먼저 일렁이는 서귀포에서부터 소식을 전해온다. 누구나 찾는 도심공원과 생태공원 산책로를 따라 스스로 핀 매화는 소박해서 친근하고, 야심찬 기획으로 2월 초순부터 이어지는 테마공원의 매화축제는 강렬하게 다가온다. 매화 흐드러진 공원에서 찾는 보물과 각종 만들기 프로그램, 먹을거리 체험도 풍성. 축제기간 입장료를 할인하는 곳도 있다. 곳에 따라 개화 시기는 제각각 다를지라도 매화가 전하는 매력만은 장소불문 차고 넘친다. 햇살 받은 꽃잎, 그윽한 매화향에 취해 사뿐 사뿐 걸으며 올 한해도 너나없이 꽃길예약. 3. 환경을 사랑할 줄 아는 특별한 사람들의 – 예래생태마을 색달동과 상예, 하예동을 관할하는 행정동 예래동은 감귤농사와 어업이 이뤄지는 농어촌 마을이자 중문관광단지가 자리한 제주관광의 중심지. 마을을 지켜준다는 사자 ‘군산’과 구시물, 애기업개돌이 마을을 굽어 살피고 해안을 따라 절경이 펼쳐지는 마을 포구에는 마을사람의 평온을 빌며 세운 명물, 진황등대도 있다. 환해장성과 당포연대 등 오랜 역사만큼 문화유적도 다양하며 대왕수천의 풍부한 물과 깨끗한 환경으로 가장 먼저 반딧불이 보호지역으로 지정되기도. 에코파티와 생태 체험 축제를 통해 자연과 문화가 살아 숨 쉬는 마을로 인정받는 지금, 찬란한 봄날의 한가운데 펼쳐질 등문화축제에서 소원 풀어낼 기대감도 조금씩 자라나기 시작한다. 마을해설사가 이끄는 투어와 자연체험장을 갖춘 생태체험관까지 예래동을 말할 때 떠오르는 것이 한둘이 아닌 건 어쩌면 자연스러운 현상일지도 4. 나랑 별 보러 가지 않을래? – 기간한정 행복을 주는 별, 노인성 아직은 차가운 밤하늘, 오리온자리 아래 시리우스를 따라 남쪽바다로 향하다 수평선 근처에서 희미한 별을 찾았다면? 다름 아닌 노인성이다. 오래도록 불려온 그 이름에는 사람이 나이가 들며 완전하고도 이상적인 인간이 되어간다는 의미가 담겨 있고 남반구에서는 흔하지만 우리나라에서는 귀하기에 길흉화복과 무병장수를 관장하고 천하태평과 복을 빌어준다고 알려져 있다. 겨울철 별자리에 속하며 11월에는 새벽녘에 보이다가 2월에서 3월 초 저녁시간에 관측 가능. 이 별을 보려면 남해안 높은 산이나 제주를 찾아야 하는데 제주에서도 서귀포지역이 노인성 관측의 최적지이며 서귀포천문과학문화관이 노인성을 관측하는 국내유일 천문대. 이 별을 함께 보고 오래도록 행복할 수 있는 기회가 바로 지금 제주 서귀포에 열려있다니 벌써부터 심장이 두근두근. 월요일 휴관, 기상에 따라 관측이 어렵거나, 조기 폐관할 수 있으니 방문 전 사전 확인 필수. 5. 이른 봄, 푸르름을 그리는 당신에게 – 대수산봉 올레 2코스의 일부인 이곳은 과거 물이 나던 산이라 하여 물뫼로 불리다가 크다를 더한 큰물뫼, 대수산봉이 되었다. 조선시대에는 봉수대가 있었다니 눈치 빠른 이들은 알아챘을까? 그만큼 멀리까지 내다보인다는 걸. 우도, 성산일출봉, 섭지코지와 지미봉, 말미오름이 보이고 근처 고성리, 오조리, 성산리의 마을 풍경도 조망 가능해 아는 사람만 아는 숨겨진 일출명소. 삼나무와 소나무로 이뤄진 숲 안에서는 겨울에도 푸릇함을 느낄 수 있고 탐방로 관리도 잘 되어 있는데다 곳곳에 쉼터와 운동기구를 구비하는 센스까지 장착! 등반에 소요되는 시간은 길지 않다. 휴식까지 넉넉잡아 한 시간, 3~40분이면 충분히 탐방가능. 여러 개의 등반코스 가운데는 계단이 있는 곳과 없는 곳, 가파름의 차이가 있고 입구에 주차장이 마련된 곳도 있다니, 미리 알아보고 형편 따라 선택하자. 6. 제주가 품고 키운 생명의 기운 찾아 – 한라수목원 죽림원, 도내 다원들 겨우내 바래지 않은 초록이 그 가치를 드러내는 2월, 남쪽나라 제주는 먼저 봄을 입는다. 도민과 관광객 모두에 인기 만점인 한라수목원에서는, 평일 오전 10시와 오후 2시  마련된 숲해설로 휴식과 정보를 함께 얻고 대나무숲 죽림원도 거닐 수 있다. 신이대, 왕대, 제주조릿대, 죽순대까지 대나무 곁 산책로를 걷다보면 마음속 비밀 혹은, 일상의 스트레스를 털어낼 수도. 제주 곳곳 차밭의 그윽한 푸르름도 이미 봄이다. 거문 오름을 등에 업은 다원에서는 정갈하게 다듬어진 차밭의 초록을 배경삼아 조용히 산책하다 사진 찍기에 그만이요 유기농 차를 맛볼 수도 있다. 1100고지 주변 한적한 다원에서 진초록 융단 위 눈이불의 장관을 감상할 수 있고 녹차밭과 미로공원을 겸한 다원에는 낮은 단계부터 높은 단계까지 수준에 따른 미로 탐험과 염소 먹이주기가 있어 어린이 동반 가족에게 더욱 매력적. 7. 옛 사람들의 삶 찾아 떠나는 시간여행 – 도내 유적지들 알고는 있을까, 우리나라에서 가장 오래된 신석기시대 문화유적이 고산리에 있다는 사실을! 세계지질공원 제주에서도 손꼽히는 지질트레일, 수월봉 품은 고산리는 지질학적 가치뿐 아니라 역사・문화적 가치도 높다. 고산리 유물은 한국 내륙에서 발견되지 않은 유물 조합상으로 후기 구석기와 초기 신석기의 연결고리이자 동북아시아의 초기 신석기문화를 살피는 훌륭한 자료. 청동기와 철기시대의 마을 모습은 삼양동에 있다. 도내 최대 규모 마을유적의 움집과 불 땐 자리, 둥그렇게 둘러앉은 마을 터부터 옛사람들의 의식주와 도구 생산 과정도 살펴보자. 모두가 언제든 찾도록 연중무휴・무료로 운영 중. 참고로 고산리와 삼양동 유적 모두 국가사적으로 지정돼 있다. 좀 더 신비로운 옛사람들의 삶을 원한다면? 탐라국 시조 삼신이 솟았다는 삼성혈이나 삼신과 삼공주의 혼례장소 혼인지를 찾아도 좋겠다. 8. 추위 녹이던 온기와 색감, 마음도 녹여 – 식물이 있는 카페 화려한 조명과 장식, 혹은 무채색의 심플함 사이 당신의 취향은 어디쯤? 그 어느 쪽도 아니라면 나무 빛 실내에 푸릇푸릇한 식물이 숨 쉬는 카페는 어떨까. 아늑하고 조용하면서도 생기를 잃지 않은 공간들이 하나 둘, 우리 마음으로 가지를 뻗어오는 중. 인류가 자연을 얼마나 사랑하는지는 식물 앞에서 한결 평온해진 자신을 발견할 때 알 수 있다. 포근한 공간 안에 긴장을 풀어놓고 자연의 기운을 받고 싶다면 가드닝 카페 혹은 유리온실 카페들로 지금 떠나자! 입안 감도는 음료의 맛에 온몸을 감싸는 식물의 온기로 훈훈함이 더해질 것 . 혹시 카페, 베이커리, 인테리어에 관심이 있다면 ‘2020 제주카페스타’를 찾아도 좋다. 제주 유일의 전시인증 카페박람회라니 취향 따라 필요한 만큼 즐기다 오자. 9. 꼼지락꼼지락, 손길 작품이 되다 – 제주감성&amp;정성 듬뿍 체험클래스 제주에 왔다가 빈손으로 돌아간다고? 놉! 제주에서의 추억과 시간, ‘제주갬성’ 기념품 하나쯤은 챙기고 싶은 마음이야 누구나 비슷하다. 도내 곳곳 소품가게를 둘러보며 고심 끝에 고를 수도 있겠지만, 조금만 더 마음을 기울이면 내 손으로 제주 기념품을 만드는 방법이 보인다. 내가 디자인하고 만드는 유리공예, 내가 짓는 돌담액자와 나만의 손글씨, 색 조합에서부터 취향 저격하는 유리알 액세서리까지. 몇 시간의 투자로 세상 어디에도 없는 나만의 기념품이 완성된단다. 직접 발품을 파는데다가 만드는 동안 몰입의 기쁨이 더해지면, 여행 뒤에도 제주에서의 기억을 더 깊고 진하게 만들어줄 것. 어쩌면, 오래도록 아끼고 사랑하게 될 나의 새 여행메이트가 여기에서 탄생할지도. 많은 공방들이 SNS를 통해 소통하니 사전 문의와 예약은 ‘필수’되시겠다. 10. 원 없이 먹어보자 제주 생선 – 생선모듬구이 해산물을 즐기지 않는 사람도 제주에 오면 회 한번쯤 먹듯, ‘육식형 인간’을 자부하는 누구라도 이곳에서만큼은 제대로 된 생선구이 한상 먹어보는 것 어떨까. 그동안의 생선구이에 대한 기억은 생선 두어 마리, 몇 조각이 전부였다고? 이제 여기서는 기대치를 조금 더 올려도 좋다. 감각적인 인테리어로 꾸며진 공간에서 코스 요리로 즐기는 생선구이집부터, 반찬과 돔베고기를 기본으로 해 계절에 맞는 모듬 생선을 쫙~ 펼쳐놓고 조금씩 맛보는 편안한 분위기의 공간도 있다. 혹시 누가 알까, 미처 몰랐던 생선 맛에 눈뜨거나 일생을 함께할 소울생선을 여기서 만나게 될 지! 고기도 먹어본 사람이 먹는다고 생선도 먹어본 사람이 먹는다는 말씀! 제주관광공사 관계자는 제주관광공사의 2020년 추천 관광 10선은 제주관광정보 사이트에서 자세히 확인할 수 있다. FINTECHPOST 저작권자 © 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 무단전재 및 재배포 금지 김태연 기자 다른기사 보기 [관련기사] 슈퍼주니어 김희철, ‘셀러비’에 림프종 소아암 어린이 응원 영상 메시지 공개 론진 “SBS 신작 드라마 ‘더 킹: 영원의 군주’ 제작 협찬” 메가박스, 4월 29일 개봉 '트롤: 월드 투어' 개봉 기념 ‘빵원 티켓 이벤트’ 실시 ‘방방콘’ 방탄소년단 지민, 레전드 솔로곡 ‘라이’ 무대에 전세계 열광! 美아마존 베스트셀러 1위 메가박스, 인기작 재상영하는 '스페셜 히어로 기획전' 29일까지 진행..‘마블’ 인기작 엄선 예스24, 부와 행운의 비밀에 대한 수만 건의 사례 분석과 성찰 담은 ‘더 해빙 The Having’ 새로운 1위 등극 레담 엔터테인먼트, 인디뮤지션 ‘혜주’, 새 싱글 앨범 ‘Moon light’ 공식 발매 바른손,영화진흥위원회 한국영화아카데미 ‘Attack on Daddy’, 제19회 트라이베카 영화제 공식 초청 예스24, 4월 2주 음반 판매순위 발표 많이 본 뉴스 1[시황] 이더리움피오더블유(ETHW) 가격 상승세..이더리움 머지로 에어드랍 코인 2팀스토리 연토큰, 글로벌 거래소 비트마트(Bit Mart) 상장 3트론 저스틴 선, 부산 UDC에서 웹 3.0과 미래 블록체인 생태계 발표 4일부 셀시우스 주주, 선순위채권자 자격 요구 5후프클럽(HoopClub), 프로농구단 팬 커뮤니티 멤버십 NFT 완판 6두나무 ‘UDC 2022’ 폐막…이틀간 3,000명 찾았다 7크리버스×이승훈 작가, 콜라보 NFT 전시회 이태원 카페서 개최 8체인 링크(LINK), 스테이킹이 도입되는 확대 계획 ‘Economics 2.0’이 발표 9영화 속 소품, 좋아하는 작가의 한정판 작품을 소장할 수 있는 기회 10ENS 도메인, 250만개 돌파 최신기사 테더사 “USDT 준비자산 58% 이상이 미 단기 국채” 미 SEC, 킴 카다시안을 암호화폐 불법 광고로 기소 크립토 '공포·탐욕 지수' 20... 투심 위축 BNB체인, 150만 달러 규모 빌더 지원금 제공 FTX 거래소, 독자적인 DXY 무기한 선물 거래 시작 제네시스 글로벌 트레이딩, 그레이스케일 투자상품 운용 중단 바이낸스 : 첫 번째 LUNC 수수료 소각이 완료 이더리움, 보유자 수익성이 50% 이상으로 회복 신문사소개 기사제보 광고문의 정정보도 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로47길 19 기사정정요청: press88only@daum.net 애드버토리얼 아티클 : 광고문의 클릭 및 작성 대표전화 : 010-3219-7524 (문자 수신용) 편집부장 조해리 제호 : 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 등록번호 : 서울 아 04281 등록일 : 2016-12-15 발행일 : 2016-12-15 발행인·편집인 : 조흥훈(Harry_cho) 청소년보호책임자 : 강민 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2016-2022 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media. All rights reserved. mail to ajuaju123@naver.com(business proposal) / 보도자료는 press88only@daum.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 생태관광 활성화 위해 52억원 투입 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 생태관광 활성화 위해 52억원 투입 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 생태관광 활성화 위해 52억원 투입 현대성 기자 승인 2020.05.10 10:52 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 동백동산 습지 생태관광 육성사업 등 생태관광 활성화에 52억원을 투입한다고 10일 밝혔다. 제주도는 생태관광지원센터를 (사)생태관광협회에 위탁해 생태관광에 관심이 있는 사람이라면 누구나 생태관광에 참여할 수 있는 서비스 체계를 구축한다. 제주도는 또 생태관광인증 시범운영을 통해 인증 절차 등 구체적 방법을 마련할 방침이다. 제주도는 생태관광 육성에 관한 사항을 심의·자문하기 위해 제2기 생태관광위원회를 지난달 30일 재구성하기도 했다. 박근수 제주도 환경보전국장은 "우수한 생태자원을 활용한 생태관광의 내실화와 저변 확대는 물론 지역주도 자립형 생태관광 기반 체계 구축에 앞장서 나가겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 84일부터 요양시설 접촉면회 재허용 9김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+    <t>제주도 외국인 관광객 99%↓…롯데·신라면세점 ‘휴점’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 외국인 관광객 99%↓…롯데·신라면세점 ‘휴점’ 파이낸셜뉴스입력 2020.05.28 12:27수정 2020.06.01 17:23 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 매출 90% 이상 급감…코로나19 ‘팬데믹’ 국제선 중단 코로나19로 국제선이 끊기면서 제주국제공항 국제선 운항 항공편이 없어 발권카운터가 텅 비어있다. [뉴시스] [제주=좌승훈 기자] 롯데면세점 제주점이 오는 6월1일부터 무기한 휴점에 들어간다. 신라면세점 제주점도 6월 한 달 동안 휴점 결정을 내렸다. 코로나19 사태가 세계적 대유행(팬데믹)으로 번지면서 각국의 입국제한 조치들이 이어지고 제주도를 찾는 외국인 관광객도 급감한 데 따른 결정이다. 실제로 지난 4월 제주도를 찾은 외국인 관광객은 1159명으로 전년 동월(13만9360명)에 비ㅏ해 99.2%나 감소했다. 특히 지난 4월6일부터 국토교통부가 국제선 항공기 도착지를 인천공항으로 일원화하면서 제주공항의 국제선 이용이 중단된 상태다 롯데면세점 제주점은 지난 2월부터 영업시간을 단축해 운영해 왔으나, 5월 매출이 전년에 비해 90% 이상 급감하면서 운영에 어려움을 겪어 왔다. 두 면세점은 휴점에 들어가면서 입점해 있는 브랜드 중 규모가 영세한 매장을 중심으로 퇴점을 준비하는 것으로 알려졌다. 재개점 시기는 코로나19 사태 추이를 보면서 판단하기로 했다. jpen21@fnnews.com 좌승훈 기자 키워드#롯데 #신라 #면세점 #신라면세점 #롯데면세점 #코로나 #휴점 #코로나19 #관광객 #외국인 #제주도 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광업체 코로나19 자체방역 점검결과 '이상무' :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광업체 코로나19 자체방역 점검결과 '이상무' 등록 2020.05.29 09:58:19 작게 크게 [제주=뉴시스] 코로나 19 예방행동수칙.[제주=뉴시스] 강정만 기자 = 제주특별자치도가 신종 코로나 바이러스 감염증(코로나19) 확산 차단을 위해 관광업체의 방역상황을 점검한 결과 대체적으로 잘 지키코 있다는 평가가 29일 나왔다. 도는 지난 20일부터 관광숙박업과 유원시설업, 야영장 등 610곳을 대상으로 이미 당부한 지침인 ▲ 주기적 방역과 이행수칙 준수 ▲종사자 위행관리▲방역관리자 지정 ▲보거소 담당자와의 연락망 확보 ▲사업체 내 유증상자 발생시 대처방법 ▲방문자 한 방향 이동동선 마련 등이 지켜지고 있는지를 점검했다. 점검결과 대부분 시설이 방역관리자를 지정운영하고 있고 매일 객실방역과 환기를 실시하고, 주 2회 이상 로바와 복도 등에 주기적인 소독 등으로 방역체계를 유지하고 있는 것으로 평가됐다. 실제로 A호텔의 경우 이용객 문진표 작성후 체크인을 하고 있고, B 호텔과 C 유원시설은 시설물 내에 세워져 있는 돌하르방에 마스크를 씌우고 손님들에게 마스크 착용을 유도하고 있었다. D 유원시설도 유기기구를 탑승하거나 탑승대기 시 거리 간격 유지, 라커룸 간격을 유지하도록 하고 있었다. 강영돈 도 관광국장은 "이번 현장 계도를 통해 도내 관광관련 시설의 자체 방역체계는 잘 유지되고 있는 것으로 파악됐다"며 "하지만 본격 여름 휴가가 시작되고 있어서 더욱 더 튼실한 방역체계 유지를 할 수 있도록 계속 계도해 나가겠다"고 밝혔다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도관광지추천 ‘제주이야기’ 천연 꽃 향수로 만드는 체험관광코스 - CCTV뉴스 - 김다선 기자 × 전체기사 특집 모아보기 News Focus On People Inside Product Zoom In D-Trend 스토리지 안전산업특집 OT보안특집 UPDATE : 2022-10-11 13:20 (화) 로그인 전체기사 정기구독신청 고객센터 광고문의 스토리지 OT보안 안전산업 News Focus On People Inside Product Zoom In D-Trend 검색 기사검색 검색 회원 로그인 회원가입 이전 다음 제주도관광지추천 ‘제주이야기’ 천연 꽃 향수로 만드는 체험관광코스 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 조이뉴스 제주도관광지추천 ‘제주이야기’ 천연 꽃 향수로 만드는 체험관광코스 김다선 기자 승인 2020.05.30 10:00 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도 구좌읍은 대표 해변인 월정리 해수욕장과 김녕 해수욕장 주변으로 바다풍경을 즐길 수 있는 카페들이 계속 생겨나고 있는 제주 핫플레이스이자 종달리 수국길과 2800여 그루의 비자나무가 그늘을 만들어 주는 비자림 등 제주도관광지주천에서 빠지지 않는 관광명소들이 모여있는 지역이다. 이처럼 대표 명소 외에도 구좌읍가볼만한곳으로 동검은이오름을 비롯해 넓은 용암 대지 위에 동백나무 천연림과 다양한 종류의 식물이 조화롭게 우거져 있는 곶자왈 동백동산, 코발트 빛이 무척 아름다운 세화해변과 인근 세화민속오일장과 해녀박물관 그리고 송당마을에서 유명한 핸드드립 카페인 풍림다방 등이 있다. 풍림다방 바로 앞으로는 제주도체험관광지 ‘제주이야기’가 위치해 있어 제주도의 자연을 담은 천연향수와 천연 화장품을 만들어 볼 수 있다. ‘제주이야기’는 제주도 체험 실내관광지로 구좌읍 비자림 근처 송당점과 월정리 해변인근 행원본점 두 군데를 운영하고 있다. 실내에 자리하고 있어 날씨에 구애받지 않고 쾌적한 체험이 가능하며 대부분의 실내체험이 연령대 제한이 있지만 5세 이상부터 체험이 가능하다는 것이 장점이다. 특히 향수는 동백, 수국, 수선화, 장미 등 제주자생 꽃과 천연오일 등 보존제가 전혀 들어가지 않은 천연원료로 만들어 어린이도 부담 없이 만들고 사용할 수 있어 어린자녀를 둔 가족단위의 여행객들에게 특히 선호되고 있다. 체험상품으로는 △천연오일 베이스와 천연왁스를 첨가한 ‘천연꽃 립글로즈’ △자신이 좋아하는 향의 냉동 건조된 천연꽃을 골라 나만의 스타일대로 넣어 데코 할 수 있는 ‘천연꽃 롤향수’가 있다. 또한 제주도의 청정지역에서 직접 재배한 꽃과 한라봉 등 천연 재료를 가공한 액상차와 최근 신제품 립오일을 출시한 기능성 화장품, 예쁜 젤 캔들 등 다양한 제주도 기념품까지 구매할 수 있다. 업체 관계자는 “제주도 천연꽃으로 향수와 화장품을 만드는 체험은 제주도에서 할 수 있는 특별한 체험으로 구좌읍가볼만한곳으로 입소문을 타고 있고 연인이나 가족단위 방문객은 물론 회사 워크숍 등 단체 체험도 이어지고 있다”고 말했다. 이어 “특히 내 손으로 직접 만들어 세상에 단 하나뿐인 향수라는 특별한 의미가 더해져 선물용으로 만족도가 높은 편”이라고 전했다. 한편, ‘제주이야기’브랜드를 만든 (주)제주사랑농수산(대표 양경월)은 제주 최초로 화산석 화장품을 개발해 국내 굴지의 화장품회사에 납품하고 한라봉을 원료로 하는 액상 차 및 꽃을 이용한 티백 및 향료개발 등 지역 고유의 자연 환경과 문화적인 특성을 활용한 제품을 개발하고 있다. 저작권자 © CCTV뉴스 무단전재 및 재배포 금지 김다선 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 가장 많이 본 뉴스 1[IT트렌드] 출입부터 결제까지, 무인 매장 지키는 보안 기술 각광 2[IT트렌드] 교통사고, 이제 AI·빅데이터로 막는다 3[기고] 빠르게 진화하는 사이버 보안 위협 요인의 진단 및 정보 보안 핫 이슈 4윈도우-리눅스 노리는 멀웨어 ‘카오스’ 주의 5안랩, 컴퓨터 드라이버 취약점 이용한 사이버 공격 사례 발표 6LGU+ 등 개인정보 보호법 어긴 8개 사업자에 3120만 원 벌금 부과 7인섹시큐리티, 디지털포렌식 ‘랜섬웨어-가상자산 분석 추적 세미나’ 연다 8스패로우, 연례 고객 초청 행사 ‘PUC 2022’ 성공적 개최 9비자, 코로나19 이후 온라인 금융 사기 양상 보고서 공개 10개인정보 보호법 어긴 바로고-누리집에 약 8600만 원 벌금 부과 이 시각 주요뉴스 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 세종시, ‘시민 참여로 지속 가능한 국제 안전 도시 만들기 대회’ 개최 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 독일 IT 보안청장, 러 정보 기관 접촉 혐의로 해임 수순 러 해커 킬넷, 美 주요 공항에 디도스 공격 러 해커 킬넷, 美 주요 공항에 디도스 공격 매체소개 광고문의 기사제보 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 법인명 : (주) 테크월드 제호 : CCTV뉴스 08507 서울특별시 금천구 가산디지털1로 168, 1012-1호 (가산동, 우림라이온스밸리 C동) 대표전화 : 02)2026-5700 팩스 : 02)2026-5701 이메일 : webmaster@techworld.co.kr 등록번호 : 서울, 아 03078 등록일 : 2008-06-27 발행일 : 2009-02-19 발행·편집인 : 박한식 청소년보호책임자 : 박지성 Copyright © CCTV뉴스 All rights reserved. 위로</t>
+  </si>
+  <si>
+    <t>제주도 관광지에 자율주행 셔틀버스 달린다 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 관광지에 자율주행 셔틀버스 달린다 파이낸셜뉴스입력 2020.05.30 14:10수정 2020.05.30 14:15 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주시 구좌읍, ‘스마트빌리지’ 보급 확산사업 대상지로 선정 제주시 구좌읍 스마트빌리지 개념도 [출처=과학기술정보통신부] [제주=좌승훈 기자] 제주시 구좌읍이 스마트빌리지로 바뀐다. 제주특별자치도는 과학기술정보통신부가 추진하는 2020년 ‘스마트빌리지 보급 확산 사업’ 공모 결과 구좌읍이 김해시(진영읍)·강진군(강진읍)·완주군(봉동읍)과 함께 선정했다고 30일 밝혔다. 스마트빌리지 보급 확산 사업은 4차 산업혁명을 농어촌에서도 향유할 수 있도록 지능정보기술을 접목한 생산성향상, 안전강화, 생활편의 서비스를 보급·확산하는 사업이다. 도는 이에 따라 올 연말까지 사업비 24억8200만원(정부출연금 18억4900만원, 참여기업 6억3300만원) 투자받아 서비스 시스템을 구축할 예정이다. ■ 주민참여 체감형 커뮤니티케어 서비스 구축 스마트빌리지 보급 및 확산 사업은 대도시 중심의 스마트 시티 사업을 지역 균형발전을 위해 농어촌 중심의 생활편의를 개선하기 위해 추진하는 공모사업으로 제주지역에서는 제주시 구좌읍이 선정됐으며 전국에서는 제주시 구좌읍을 포함해 4개 지역이 최종 선정됐다. 전국 4개 지역이 최종 선정됐다. 이에 따라 구좌읍 세화리·상도리·하도리·종달리송당리 마을에는 ‘ICT(정보통신기술) 융합 기반 주민 참여 체감형 커뮤니티케어 서비스’ 체제가 구축된다. 사업별로는 ▷이미지 센서를 추가한 IoT(사물인터넷) 기반 스마트 쓰레기통 관리 솔루션 구축 ▷대화형 IoT 기기를 통한 스마트한 양방향 어르신 커뮤니티케어 시스템 구현 ▷관광객 유치와 지역경제 활성화를 위한 자율주행 셔틀 운행 ▷지오펜싱(위치정보 기술) 기반 주거환경 보안과 해녀 사고발생 위험 대비 정보시스템 구축 ▷키오스크(Kiosk)·디지털 사이니지((Digital Signage)를 통한 지능형 정보공유 플랫폼을 구축과 이를 통한 정보 공유 채널 확대 도모다. ■ 해녀복에 위치정보기술 적용 안전사고 예방 이 중 가장 관심을 끄는 부분은 해녀들의 안전사고 방지를 위한 IoT 디바이스로 개인별 잠수 데이터 수집 및 모니터링 사업이다. 이는 IoT 디바이스를 해녀들에게 부착해 잠수시간이나 깊이·위치 등 개인별 잠수데이터를 수집하고 위험한 잠수습관이나 사고가 많은 잠수지역을 모니터링해 안전위험이 높은 경우 경고해 주는 방식으로 진행된다. 이와 함께, 전기 기반 자율주행 셔틀 1대를 도입해 관광지와 마을 일정 구간을 운영하는 시범사업도 진행된다. 아울러 주민이 지역 내 자율방범대에 주거지 순찰 강화를 요청하는 서비스와 마을회관 버스 도착 음성 알림·탑승예약 서비스도 선보인다. 물질하는 제주해녀 /사진=fnDB 쓰레기통 내부에 IoT 카메라 센서를 설치해 적재량 실시간 모니터링과 불법 배출 판독 등 통합 모니터링 솔루션을 제공하는 '스마트 쓰레기통' 사업도 확대된다. 고독사·우울증이 우려되는 어르신 가정에 지능형 IoT스피커를 설치해 원격상담과 함께 센서 기반 온도·습도, 조도, 활동량 등 주거환경 모니터링 사업도 진행된다. 아울러 주민·관광객을 대상으로 지역정보·공공정보·관광정보 제공과 함께, 원격 병·의원 제증명(영수증, 진료비 세부내역, 통원확인서) 발급 서비스도 추진된다. 도는 이 사업을 통해 4차 산업혁명 혜택을 농어촌에서 향유할 수 있도록 지능정보기술을 접목함으로써 지역 현안 해결과 생활환경 개선하고 이를 통해 편의성 향상과 관광 활성화를 도모하는데 크게 도움이 될 것으로 기대한다고 밝혔다. 한편 제주지역 컨소시엄에는 도를 수행기관으로 하고 제주시청·㈜이큐브랩·㈜로하·㈜에이브레인·㈜언맨드솔루션·아이라자스㈜·BBMC㈜·㈜원·㈜디지털존 등이 참여하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 6차산업 ‘협업’…농촌관광상품 개발·판로 확대 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도 6차산업 ‘협업’…농촌관광상품 개발·판로 확대 파이낸셜뉴스입력 2020.05.28 17:26수정 2020.05.28 18:21 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주농업농촌6차산업지원센터, 협회 협업화 지원사업’협약식 제주농업농촌6차산업지원센터 2020년 농촌융복합산업 협업화 사업 협약식 [제주=좌승훈 기자] (사)제주농업농촌6차산업지원센터(센터장 안순화)는 6차산업 협업체계 구축과 협업 활동 지원을 위한‘2020년 제주6차산업협회 협업화 지원사업’ 협약식을 가졌다. 이번 사업에는 체험 패키지 개발 등을 위해 대표 경영체 ‘생각하는정원’과 협업 경영체 2개소(농업회사법인 ㈜ 아침미소·제주민속식품 사월의 꿩)가 1×3 유형으로 선정이 된 가운데, 도내·외 방문객들에게 농촌융복합산업의 취지를 알리고, 농업·농촌 관광 홍보에 나설 계획이다. 이들은 이날 협약식을 통해 오는 6월 중 체험상품 개발을 시작으로 7~8월 여름 휴가철과 9~10월 추석연휴 기간에 친구·연인·가족 방문객들이 3개 경영체를 방문한 가운데, 다채로운 체험상품을 즐길 수 있도록 만전을 기하기로 했다. 주관기관인 (사)제주농업농촌6차산업지원센터는 “코로나19 사태 장기화로 도내 농업·농촌 관광객 수가 급감하면서 경영체들이 어려운 상황에 놓여 있지만, 공동으로 협업 상품을 개발하고, 연대를 강화해 시장 경쟁력 확보와 6차산업 활성화에 힘써 나갈 것”이라고 밝혔다. 6차산업은 농촌에 존재하는 모든 유무형의 자원을 바탕으로 농업과 식품, 특산품 제조가공(2차산업)과 유통판매·문화·체험·관광·서비스(3차산업)를 연계함으로써, 새로운 부가가치를 창출하는 활동을 의미한다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 생활방역 속 문화유산 관광...'설화와 자연의 길’ 선보인다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 생활방역 속 문화유산 관광...'설화와 자연의 길’ 선보인다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 문화 전시·축제 제주도, 생활방역 속 문화유산 관광...'설화와 자연의 길’ 선보인다 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.05.27 12:45 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 국내 7개 문화유산 코스 포함, 문화유산방문 캠페인 진행'제주 세계유산축전, 9월 4일부터 개최 '문화유산 방문 캠페인' 선포식. ⓒ헤드라인제주 신종 코로나바이러스감염증(코로나19) 생활 방역 속 국내 문화유산방문 캠페인이 진행되는 가운데, 제주에서는 '설화와 자연의 길' 테마의 문화유산 관광이 선보인다. 원희룡 제주도지사는 27일 오후 서울 중구 소공동 환구단에서 열린 ‘문화유산 방문 캠페인’선포식에 참석해 생활방역 속에서도 국민들에게 활력이 될 수 있는 문화유산 방문 캠페인에 제주도는 '설화와 자연의 길'을 테마로 해 참여한다고 밝혔다. 이번 캠페인은 문화재청과 한국문화재단이 문화유산에 대한 국민의 관심을 유도하고 코로나19로 지친 국민들의 방문을 촉진해 내수경제 활성화를 모색하기 위해 마련됐다. 행사에는 원 지사를 비롯해 정세균 국무총리, 박양우 문화체육관광부장관, 정재숙 문화재청장, 이철우 경상북도지사 등이 참석했다. '참 만남, 참 문화유산(Feel the REAL KOREAN HERITAGE)'을 구호로 하는 문화유산 방문 캠페인은 문화유산과 사람 간 거리를 좁히고 문화유산을 국민을 위한 공간으로 만드는 것을 목표로 하고 있다. 문화재청은 세계유산과 인류무형유산을 중심으로 주제의 유사성, 지역 근접성을 고려해 1박 2일 또는 2박 3일 일정으로 돌아볼 수 있는 '한국 문화유산의 길' 7개 코스를 선정했다. 한국 문화유산의 길은 △'천년 정신의 길'(경주·안동) △'백제 고도의 길'(공주·부여·익산) △'소릿길'(전북·전남) △'설화와 자연의 길'(제주) △'왕가의 길'(서울·인천·경기) 등 5개 기본 코스와 세계유산으로 등재된 서원과 산사를 각각 묶은 '서원의 길', '수행의 길' 2개 테마 코스로 구성됐다. '문화유산 방문 캠페인' 선포식에서 인사말을 하고 있는 원희룡 제주도지사. ⓒ헤드라인제주 '문화유산 방문 캠페인' 선포식에서 대화를 나누고 있는 정세균 국무총리와 원희룡 제주도지사. ⓒ헤드라인제주 원 지사는 축사를 통해 "국가관광전략회의를 통해 내수 관광을 활성화시키는 정책결단을 내리고  체계적으로 준비해 주신데 감사드린다"면서 "자연과 문화 그리고 자랑스러운 국민들이 함께 어울어지는 국가적 중점사업을 진심으로 응원한다”고 말했다. 이어 “그동안의 100일이 넘는 코로나19 방역 과정에서 국민은 지쳐있고 경제는 침체를 넘어 중단의 위기에 있다”며 “이제 성공적인 K방역을 바탕으로 한 안전관광으로, 방역과 일상이 함께하는 새로운 모델로서 우리 한국 관광이 나아가야 한다고” 강조했다. 또 "제주도는 지금까지 지역감염 없이 잘 대응해 온 것을 바탕으로 더 조심하면서 내수경제 활성화와 자연속에서 지친 국민들이 활력을 얻을 수 있도록 준비하고 방문객들을 맞도록 하겠다”고 밝혔다. 한편, 문화유산방문 캠페인의 주요 행사인 ‘제주 세계유산축전’은 오는 9월 4일부터 20일까지 개최될 예정이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>'포스트 코로나19'…제주도 힐링·생태 관광 키운다 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; '포스트 코로나19'…제주도 힐링·생태 관광 키운다 파이낸셜뉴스입력 2020.05.20 15:15수정 2020.05.22 03:28 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주관광공사, ‘청정’ 제주웰니스관광 15선 후보지 공모 제주시 조천읍 교래리에 있는 사려니숲길은 제주의 숨은 비경 31곳 중 하나다. 사려니숲길은 본래 숲의 모습이 많이 훼손되지 않아 트래킹을 좋아하는 여행자들이 즐겨 찾는다. 지난 2002년 유네스코가 지정한 제주 생물권 보전지역(Biosphere Resev)이기도 하다. [사진=제주관광공사] [제주=좌승훈 기자] 제주관광공사(사장 박홍배)는 오는 29일까지 제주의 청정 이미지에 부합하는 힐링 목적의 웰니스관광 콘텐츠를 개발 홍보하기 위해 '제주 웰니스관광 15선 후보지'를 모집한다고 19일 밝혔다. 웰니스란 'Well-being'과 'Happiness, Fitness'의 합성어로 신체와 정신뿐만 아니라 사회적으로도 건강한 상태를 뜻한다. 제주형 웰니스관광은 건강 증진과 삶의 질 향상을 동시에 추구하는 새로운 관광분야다. 제주의 산·오름·숲길 등 자연자원과 힐링 체험프로그램을 통해 여행객의 정신적·신체적 웰빙을 유지 향상시켜 준다. 공사는 최근 코로나19로 침체된 관광시장의 활력과 힐링·치유의 소비자 트렌드를 반영한 제주여행 매력을 보여주기 위해 웰니스관광 대표 15선 콘텐츠를 발굴 선정해 홍보할 방침이다. 공사는 이에따라 제주에서 힐링·치유와 관련된 웰니스관광 콘텐츠를 4개 주제(자연/숲 치유, 힐링/명상, 뷰티/스파, 만남/즐김 치유)로 나눠 각 주제별로 부합하는 관광자원과 시설을 19일부터 29일까지 공개 모집한다. 서귀포시 대정읍에 있는 곶자왈동립공원. 총 5개의 코스가 있어 다양한 곶자왈의 모습을 감상할 수 있다. 세계에서 유일하게 열대 북방한계 식물과 남방한계 식물이 공존하는 특별한 곳이다. [사진=제주관광공사] 참가자격은 ▷제주만의 특별하고 청정한 자연자원과 함께 치유·힐링 할 수 있는 장소 ▷연중 운영되는 웰니스관광 분야별 체험 또는 프로그램 등을 보유한 곳이며, 이 가운데 일부 조건을 충족할 시 신청이 가능하다. 신청은 제주관광공사 홈페이지에서 지원양식을 다운받아 이메일과 우편 발송, 현장 방문을 통해 접수하면 된다. 참여 관광지(시설)는 향후 전문가들로 구성된 심사위원회가 적합성 등을 평가해 최종적으로 선정한다. 양필수 공사 지역관광처장은 "최근 코로나19 여파로 위축된 제주관광시장에 활력을 불어넣고 제주를 찾는 관광객들에게 만족도를 극대화하기 위해 치유·힐링 콘셉트의 웰니스 관광 콘텐츠를 모집하게 됐다"며 "코로나 안정단계 이후 SNS와 소셜커머스를 활용한 대외 홍보도 강화할 방침"이라고 말했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>에이블뉴스 - 제주도관광약자접근성안내센터, 여행작가 추가모집 [메뉴 건너뛰기] 바로가기 -서비스목록선택- 전체기사 많이본기사 알려드립니다 자유게시판 친구합시다 로그인 | 회원가입 검색 검색 폼검색 범위 통합검색 뉴 스 뉴스태그 포 토 동영상 -이슈동영상 -수화동영상 -오디오뉴스 지식짱 -Q &amp; A -지식자료실 블로그 사이트 검색어 인기검색어 코로나19 | 탈시설 | 집중호우 주요서비스 추천컨텐츠[모집] 현재 에이블서포터즈 회원 명단입니다. 뉴스기사분류 전체기사 | 기획특집 | 정보세상 | 오피니언 | 정치/정책 | 인권/사회 | 노동/경제 | 통합교육 | 복지/건강 | 여성/아동 | 자립생활 | 문화/체육 | 인물/단체 | 전국넷 단체 서브메뉴 전체기사 기사제보 많이본기사 취재수첩 세상이야기 댓글 열전 공식블로그 주요행사 에이블서포터즈 장애인신문고 - 발달장애인이 행복한 삶 '주간활동서비스' 사업 안내 - 한국장애인개발원 장애인식개선 유튜브 채널 '당장만나' 뉴스홈 &gt; 인물/단체 &gt; 단체 http://abnews.kr/1Qht 본문시작 제주도관광약자접근성안내센터, 여행작가 추가모집 에이블뉴스, 기사작성일 : 2020-05-26 10:12:33 제주특별자치도 관광약자접근성안내센터가 오는 6월 5일까지 ‘여행작가 양성과정’ 참가자를 추가 모집한다.‘여행작가 양성과정’은 장애인, 노약자, 임산부 등 관광약자의 관광활동에 대한 관심을 증대시키고 관광약자의 사회참여활동을 도모하기 위해 마련됐다. 참가 대상은 장애인, 노인, 임산부 등 제주도 거주 관광약자로 접근성교육, 스토리텔링, 글쓰기 등의 교육과정을 거쳐 여행 작가로서 활동을 하게 된다.활동내용은 장애인 등 관광약자가 접근할 수 있는 제주여행지를 방문하여 여행지에 대한 취재 및 글쓰기, 접근성모니터링 등으로 이루어질 예정이며, 원활한 활동을 돕기 위해 동행취재 등의 지원과 소정의 활동비가 지급된다.참여 희망자는 이지제주(www.easyjeju.net) 홈페이지 또는 유선(070-4788-2883) 문의를 통해 신청 가능하다.-장애인 곁을 든든하게 지켜주는 대안언론 에이블뉴스(ablenews.co.kr)- -에이블뉴스 기사 제보 및 보도자료 발송 ablenews@ablenews.co.kr- 권중훈 기자 (gwon@ablenews.co.kr) 권중훈 기자의 다른기사 보기 ▶ &lt; 네이버에서 에이블뉴스를 쉽게 만나보세요! &gt; &lt;내손안의 에이블뉴스~ 언제 어디서나 빠른 장애인계 소식~&gt; [저작권자 ⓒ 에이블뉴스, 무단 전재 및 재배포 금지] 최신기사목록 기사분류 기사제목 글쓴이 등록날짜 인물/단체 &gt; 단체 사람사랑양천IL센터, 제7회 양천구 장애 토크콘서트 개최 이슬기 기자 2022-10-11 10:22:18 인물/단체 &gt; 단체 ‘제8회 일상속의 장애인-스토리텔링 공모전’ 수상작 소개-16 에이블뉴스 2022-10-11 08:51:27 인물/단체 &gt; 단체 ‘제8회 일상속의 장애인-스토리텔링 공모전’ 수상작 소개-⑮ 에이블뉴스 2022-10-10 13:05:37 [전체] 가장 많이 본 기사 1위 장애인활동지원기관 주민세 감면 대상 포... 2위 교통약자 위한 역사 내 길안내 서비스 즉... 3위 장애예술인 인터뷰, 소설가 이서진 4위 ‘의학적 판단 중심’ 발달장애인 활동지... 5위 [부고] 한국장애인연맹 송영욱 전 회장 ... 인기검색어 순위 lpg 시급 탈시설 코로나19 장애인활동지원 장애인 집중호우 지적장애 시각장애인 한국장애인고용공단 [단체] 많이 본 기사 장애예술인융합창작활동축제 ‘에이블아트 in... 장애인공단, ‘대국민 규제개선 아이디어 공... 장애인먼저, 근육장애인 ‘소원을 말해봐’ ... ‘제8회 일상속의 장애인-스토리텔링 공모전... 장애인체육회·복지TV, ‘장애인스포츠 중계 ... 댓글이 더 재미있는 기사 전화로 예약하는 것보다 더 중요한게 빠져있다 전국의 잔영휴양림에 국립의 경우에는 대부분 ... 발달장애인 주간활동서비스 ‘그림의 떡... [4] ‘우영우’는 없다, 발달장애인 가족은 ... [3] 장애인활동지원 본인부담금 납부 ‘후덜... [3] 발달장애인 고용 창출, '먹튀'는 안 된다 [2] 연이은 장애인 폭우·화재 참사, 남 일 ... [1] 주간 베스트 기사댓글 장애인 등록 부터 하고 중증판정 받... [11]문재인이 눈시울 붉히며 [9]기사는 좋은데... 사진이 에바다. [8]나도 사진이 GSGG 네 [6]퍼포먼스... [4] 새로 등록된 포스트 경인장애인자립생활센터 22년 8월 뉴스레터 Vol.13 경인장애인자립생활센터 8월호 뉴스레터가 나왔... 블로그 첫글[김소유의 백팔가요]신청곡을 라이브로 ..(46.)프란치스코 교황님 회칙 『찬미받으..♣(핸드폰 컴퓨터 정보 유출) 내PC돌보미..필터 샤워기 추천 제품 에이블뉴스는? 언론사소개 에이블서포터즈 장애인신문고 온라인광고 제휴사 개인정보취급방침 이용약관 사이트오류신고 사이트맵 도움말 (주)에이블뉴스 / 사업자등록번호:106-86-46690 / 대표자:백종환,이석형 / 신문등록번호:서울아00032 / 등록일자:2005.8.30 / 제호:에이블뉴스(Ablenews) 발행,편집인:백종환 / 발행소:서울시 용산구 한강대로7길 17 서울빌딩1층(우04380) / 발행일자:2002.12.1 / 청소년보호책임자:권중훈 고객센터 Tel:02-792-7785 Fax:02-792-7786 ablenews@ablenews.co.kr Copyright by Ablenews. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 사랑나눔 봉사활동 전개 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 사랑나눔 봉사활동 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 제주도관광협회, 사랑나눔 봉사활동 전개 기자명 홍석형 기자 입력 2020.05.25 09:52 수정 2020.05.25 09:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주소년원 방문...2020년도 제1회 검정고시 응시학생 격려, 행복식탁 운영 제주특별자치도관광협회 사업지원분과위원회(위원장 고철원) 위원들은 지난 21일 한길정보통신학교(제주소년원)를 방문해 제1회 검정고시 응시학생들을 격려하기 위해 행복식탁을 운영했다.이날 사업지원분과위원회는 소외되기 쉬운 청소년들을 위해 점심식사 등 70여만원 상당을 지원했으며, "앞으로도 지속적인 방문을 통해 학생들을 격려하겠다"고 밝혔다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도하면 치킨??...제주관광객 가장 많이 찾는 장소 '치킨' 꼽혀 - 한국면세뉴스 × 전체기사 DF산업 전체 국내면세점 해외면세점 산업동향 금융 DF정책 브랜드·유통 전체 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 전체 인터뷰·칼럼 What’s NEW 글로벌 라이프 여행·레저 전체 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 보도자료 UPDATED. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 전체기사 DF산업 국내면세점 해외면세점 산업동향 DF정책 브랜드·유통 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 인터뷰·칼럼 What’s NEW 글로벌 ISSUE 라이프 여행·레저 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 핫뉴스 핫뉴스 생활 엔터테인먼트 보도자료 기사검색 검색 이전 다음 제주도하면 치킨??...제주관광객 가장 많이 찾는 장소 '치킨' 꼽혀 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 여행·레저 국내여행·숙박 제주도하면 치킨??...제주관광객 가장 많이 찾는 장소 '치킨' 꼽혀 박주범 승인 2020.05.21 11:20 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 제주도를 방문한 관광객은 '치킨'을 가장 많이 찾는 것으로 나타났다. 21일 제주특별자치도와 제주관광공사(사장 박홍배)는 홍콩폴리텍대학교 박상원 교수 연구팀에 의뢰, 분석한 ‘제주방문관광객 이동패턴 빅데이터 분석’ 결과를 발표했다. 분석 결과에 따르면, T맵 사용량 기준으로 2019년 6~12월 월별 가장 많이 찾은 방문한 상위 15개 장소 중 '치킨'이 1위를 차지했다. 2위는 매월 '호텔'이 차지 했으며, 3~4위는 카페와 해수욕장이 차지했다. 가을로 접어든 10월에는 해수욕장이 후순위로 밀리고 '명산'이 순위 내 집입한 것으로 확인할 수 있다. 빅데이커 분석에서는 8개의 의미 있는 클러스터(핫플레이스)가 도출되었다. 제주공항인근(제주시 동지역), 함덕해변(조천읍) 인근, 성산일출봉과 섭지코지(성산읍) 인근, 표선해변(표선면) 인근, 서귀포 구시가지(서귀포시 동지역), 중문관광단지(서귀포시 중문동), 협재-금릉해변(한림읍), 곽지-한담해변(애월읍)으로 나타났다. 관광 패턴에서 눈여겨볼 특징은 과거 제주 전지역에 위치한 유명 관광지 중심으로 경유하던 이동 패턴에서, 특정 지역을 선택한 후 그 지역 인근에서 여유있게 머무르는 여행 패턴을 보였다는 점이다. 클러스터 외부에서 유입된 관광객(평균 33%)보다 클러스터 내부에서 이동한 관광객(평균 67%)의 비율이 상대적으로 높게 나타난 것이다. 클러스터 외부에서 유입된 비율이 상대적으로 높은 지역은 ‘함덕해변(조천읍)’과 ‘곽지-한담해변(애월읍)’ 등 제주시 동지역과 인접한 지역인 것으로 나타났다. '함덕해변‘의 경우 외부에서 유입된 비율이 46%로 나타났고, ’곽지-한담해변‘은 클러스터 외부에서 유입된 비율이 49%로 나타났다. 이 두지역 모두 제주시 동지역에서 유입된 비율이 가장 높게 나타났다. 이번 분석은 내비게이션 데이터, 공공 Wi-Fi 데이터, 버스카드 승/하차 태그 정보 데이터를 활용하여 실시했다. 내비게이션 데이터는 SKT T-map 검색 데이터(2019.06.~12. 8,466,488건의 사용자 데이터)를 이용하였고, 자차/렌터카 이용자의 이동패턴 분석을 위해 활용되었다. 공공 Wi-Fi 데이터는 내비게이션 데이터로 도출된 8개의 클러스터를 검증하기 위한 타당성 분석에 활용하였으며, 밀도추정 클러스터 방식을 사용하였다. 버스카드 승/하차 태그정보 데이터는 대중교통 이용자의 이동패턴 분석을 위해 활용하였다. 데이터 기간은 2018.07.~2019.10.이며, 이용자 규모는 2018년 909,988명, 2019년 1,354,554명이고, 데이터 규모는 1개월당 약 4백만 건이다. 제주관광공사 관계자는 “이번 연구를 통해 복잡하고 다양한 관광객의 이동속에서도 유의미한 패턴이 발견되었으며, 이번 연구를 기반으로 2단계 사업(2020~2021년)인 데이터 기반 관광 추천 서비스를 구현하고 관광서비스 플랫폼 구축 사업을 추진할 계획임.”을 밝혔다. 사진=제주특별자치도 박주범 기자 kdf@kdfnews.com 저작권자 © 한국면세뉴스 무단전재 및 재배포 금지 박주범 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 관련기사 면세업계 "구매 즉시 본국 발송 허가해야"...공급업체 "종업원 다 죽을 판. 특단대책 절실" 코로나19 직격탄 맞은 4개 업종 특별고용지원 추가 지정...항공기취급업·면세점 등 확대 신용·체크카드 4~7월 결제금액 소득공제율 80% 상향 세계 항공업계, 승객 15억4천만명 줄어 332조7870억원 수입감소 김포공항콜밴 타고가요, 철저한 소독과 관리로 코로나19 완벽 예방 기아차, 온누리 상품권 제공 이벤트...내수 소비 활성화에 동참 한국관광공사, 즉시환급형 사후면세점 확충 위해 발벗고 나서 KT, 1분기 매출 5조 8317억·영업이익 3831억...통신사 중 최대 영익 티웨이항공, 유럽 노선 하늘길 확대...LCC중 최초 크로아티아 정기노선 취항 KFC, 닭 특수부위 ‘닭껍질튀김’ 全매장 출시..."똥집은 언제??" 페라리, 마라넬로와 모데나의 '페라리 박물관' 재개장‥ ‘르망 24시와 페라리’ ‘하이퍼카’ ‘그랜드투어’ 조심스럽게 바른치킨, 신메뉴 '대세레드치킨' 출시 KT 구현모 대표, 코로나19 ‘글로벌 ICT 대응’ 참여 제주관광공사의 역발상...슬로우로드 서비스 시범운영 더보기+ 주요기사 LF ‘아떼 바네사브루노’,가을 시즌 패션·뷰티 브랜드 통합 기획전 열어 [kdf LF] 오늘부터 개량백신 접종 시작 日 도요타 자동차의 미래형 실험도시 '우븐 시티' 11월초 첫삽 유경준 의원, 'KTX-이음' 승차감 이상 195회…코레일·현대로템 개선방안 찾아야 LG에너지솔루션·포스코홀딩스, '이차전지 사업협력' 협약..."100년 기업으로 함께 성장" KB국민카드, ‘KB페이’ 중심 ‘원 플랫폼’ 서비스 구축 당신만 안 본 뉴스 [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] 카카오톡 PC·모바일 오류 발생…메시지 전송 속도 저하 및 로그인 불가 [속보] 美 허리케인 '이안(Ian)' 4등급 폭풍 격상...플로리다 비상사태 선포 '강제 주민 대피령' [KDF Disaster] 지수, 글로벌 VVIP 등극, LVMH 아르노 회장과 어깨 나란히 [KDF Dior] 이세영, '법대로 아름다워라' 자연미인의 성숙미란 이런것! [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신뉴스 지수, 송강, 앤 마리도 모두 모여, PARTY~PARTY! [KDF Cartier] 이복현 금감원장, 은행권 이자 장사 지적에 "금리인하요구권 불수용 개선책 요구할 것" 김승연 회장, 한화 창립 70주년 맞아 "늘 새로워지자" LF ‘아떼 바네사브루노’,가을 시즌 패션·뷰티 브랜드 통합 기획전 열어 [kdf LF] 포인터웍스, 최대 캠핑 축제 ‘고아웃 캠프’ 체험 부스 운영 KDFN 인터뷰 윤석열차는 계속 달려야 한다 [안창현의 돋보기] 윤석열 대통령이 취임 5개월을 목전에 두고 외교, 안보, 경제 분야에서 난맥상을 보이며 미국에서 비속어 발언 논란까지 겹쳐 국정 지지율이 급락하는 가뜩이나 어려운 국면에 각료인 박... 농협하나로마트와 양두구육(羊頭狗肉)...점검 2곳 중 1곳은 수입농산물 판매 중 농협하나로마트를 운영하는 농협하나로유통 홈페이지에는 ‘농민과 함께 대한민국에 믿을 수 있는 행복한 먹거리를 제공하는 초일류 농식품 유통전문기업’, ‘진심을 판다! 안심을 산다!’라... 2022 국정감사 민생에 주력해야 [안창현의 돋보기] 2022년 5월에 취임한 윤석열 대통령과 정부에 대한 국정감사가 4일부터 막이 오르며 여당인 국민의힘과 야당인 더불어민주당은 한 치의 양보도 없는 혈전을 예고하고 있다.취임 5개월... What's NEW 내 남자가 낯설게, 프리해 보일 때 바바토스 ‘존? 누구세요?’[KDF varvatos] 아메리칸 맨즈웨어 브랜드 존 바바토스가 반포 솔빛섬 ‘무드서울 by 겟올라잇’에서 10월 12일 가을·겨울 프레젠테이션을 진행한다. 이번 시즌 테마인 ‘When You Are St... 라이언 고슬링, 깊은 눈빛의 젠틀한 트래블맨 변신 [KDF Gucci] 라이언 고슬링이 우수 어린 눈빛으로 먼 곳을 응시하는 트래블러로 변신했다. 고슬링은 구찌 발리제리아에 둘러싸여 낯선 곳을 지나는 여행자가 됐다. 6일 구찌(Gucci)가 공개한 ‘... 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 한국면세뉴스 KoreaDutyFreeNews 등록번호 서울 아 03561 등록일 2015-02-02 발행인 박홍규 편집인 박홍규 청소년보호책임자 박주범 서울특별시 서초구 서초대로55길 3 애니빌딩 6층 (서초동 1696-13) 02-3478-1767 mail to kdf@kdfnews.com / 4067park@naver.com 한국면세뉴스 · 면세뉴스아시아 © 2022 kdfnews.com All rights reserved. 한국면세뉴스의 모든 콘텐츠는 저작권법의 보호를 받으며, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 21일 구좌읍 동복리 마늘농가 일손돕기 &lt; 동네방네 &lt; 일과 사람들 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 일과 사람들 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 동네방네 인사 화촉 부음 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 21일 구좌읍 동복리 마늘농가 일손돕기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 일과 사람들 동네방네 제주도관광협회 21일 구좌읍 동복리 마늘농가 일손돕기 기자명 김봉철 기자 입력 2020.05.24 17:04 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 부동석) 임직원 40여명은 21일 농번기 인력 확보에 어려움을 겪고 있는 제주시 구좌읍 동복리 마늘 농가를 찾아 농촌 일손 돕기를 실시했다. 또 이날 사랑나눔봉사단도 구좌읍 지역내 어려운 가정 5곳을 방문해 쌀, 라면 등 150만원 상당의 생필품을 전달했다. 김봉철 기자 bckim@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 코로나19 착한 음식점 캠페인 &lt; 경제일반 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 코로나19 착한 음식점 캠페인 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 경제일반 제주도관광협회, 코로나19 착한 음식점 캠페인 기자명 홍석형 기자 입력 2020.05.19 11:08 수정 2020.05.19 13:59 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 부동석) 외식업분과에서는 '코로나19 착한 음식점 캠페인'을 시행한다고 19일 밝혔다.도관광협회 외식업분과에서는 코로나19 극복을 위한 일환으로 관광객 및 도민들의 외식 가격부담을 낮추기 위해 업체에서 자발적으로 참여했다.코로나19 착한 음식점 캠페인은 30개 업체가 참여해 5월 18일부터 7월 11일까지 참여업체별로 코스요리 및 단품을 최소 5% ~ 최대 30%까지 할인하고 있다.할인권 배부는 제주공항, 부두 관광안내소에서 홍보물을 수령하거나 탐나오 홈페이지 이벤트에서 할인권을 캡처해 사용 할 수 있다.제주도관광협회 관계자는 "코로나19로 사업체 운영이 어렵지만 금번 할인행사로 제주관광 이미지 제고와 도민들의 어려움을 조금이라도 같이하기 위해 시행하고 있으니 많은 관심과 방문을 바란다"고 밝혔다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 문화체육관광부 지정 열린관광지 선정 최종편집 2022년 10월 11일 14시 46분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도 문화체육관광부 지정 열린관광지 선정 정기후원 제주도 문화체육관광부 지정 열린관광지 선정 '서귀포 치유의 숲 붉은오름자연휴양림 사려니숲길' 3곳 현창민 기자(=제주) | 기사입력 2020.05.13. 12:30:46 페이스북 트위터 카카오스토리 밴드 URL복사 문화체육관광부가 지정한 2020 전국 예비열린관광지에 서귀포 치유의 숲 붉은오름자연휴양림 사려니숲길 삼나무숲이 선정됐다. 제주도는 문화체육관광부가 실시한 2020년도 전국 예비열린관광지 사업 공모 결과 제주지역 3개소 관광지가 최종 선정됐다고 13일 밝혔다. 문화체육관광부가 발표한 올해의 열린관광지에는 제주도(서귀포) 강원도(강릉 속초 횡성) 충북도(단양) 전북도(임실) 전남도(완도) 경남도(거제) 등 전국 9개권역의 23개 관광지가 선정됐다. 이번 공모는 지난 1월 16일 사업설명회를 시작으로 2월 17일부터 3월 4일까지 23개 지방자치단체(71개 관광지점)에서 사업신청이 이뤄졌으며 지난 4월 3차 전문가 현장평가를 거쳐 9개 지방자치단체(23개 관광지점)가 최종 확정됐다. 강영돈 제주특별자치도 관광국장은 “이번 선정을 계기로 관광약자를 포함한 다양한 계층의 관광객들을 수용할 수 있는 체계를 갖춰가겠다”며 “코로나19 이후 제주의 대표 콘텐츠로서 질적관광의 모델이 될 수 있도록 해당관광지와 긴밀한 협업을 통ㅎ해 관리와 홍보에 더 많은 정책노력을 기울여 나가겠다”고 밝혔다. 한편 열린관광지 공모사업은 장애인 노년층 영․유아 동반가족 등 관광취약계층에 균등한 여행환경을 조성하기 위해 문화체육관광부에서 2015년부터 추진해 오고 있다. 2015년부터 2019년까지 4년간 전국적으로 49개 관광지가 선정되었고 제주지역은 지난 2017년에는 천지연폭포가 선정된 바 있다. &lt;문화체육관광부가 발표한 올해의 열린관광지&gt; 제주특별자치도(3) 서귀포 치유의 숲, 사려니 숲길 삼나무 숲, 붉은오름 자연휴양림 충북 단양군(2) 다리안관광지, 온달관광지 경기 수원시(3) 수원화성연무대, 수원화성장안문, 화성행궁 강원 속초시(2) 속초 해수욕장 관광지, 아바이 마을 강원 횡성군(2) 횡성호수길5구간, 유현문화관광지 강원 강릉시(3) 강릉커피거리, 강릉경포해변, 연곡솔향기캠핑장 전남 완도군(3) 신지명사십리해수욕장, 완도타워, 정도리 구계동 경남 거제시(3) 수협효시공원, 포로수용소유적공원평화파크, 칠천량 해전공원 전북 임실군(2) 임실치즈테마파크, 옥정호 외얏날 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도 문화체육관광부 지정 열린관광지 선정 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[사회]관광객 20만 몰린 제주도, 사회적 거리두기 2주 연장 전망 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제기에 여당... 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 감사원 국감, 시작부터 '파행'...친일 국방 논란 계속 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 관광객 20만 몰린 제주도, 사회적 거리두기 2주 연장 전망 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 학교 비정규직노조, "폐암으로 죽어가"...급... [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제... "자존심 살리려는 절박함"...러시아 보복 공습으로 전... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일 국방' 공세 일축 정진석 "조선, 내부에서 썩어 문드러져 망해"…발언 놓고 논란 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 감사원 국감, 오전 내내 '파행'…친일 국방 논란 계속 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 "자존심 살리려는 절박함"…러시아 보복 공습으로 전황 격화 우려 서울 도심에서 50대 권총 맞아…극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 회삿돈 5억 빼돌리고 잠적…안성 지역농협 직원 검찰 송치 동시계약 허점 노려 전세대출금 가로채…'신종 사기' 적발 오늘부터 개량백신 접종…신규 확진 1만 5,476명 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 국민연금 자발적 가입자 5년만에 첫 감소세…건보개편 영향 우려 물가 오름세에 '구제 시장'도 한숨…"손님 있어도 안 사요" "자격시험 도중 화장실 못하게 하는 건 인권 침해" 학력 전수평가 5년 만에 사실상 부활…초3~고2로 확대 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 다음 사회 관광객 20만 몰린 제주도, 사회적 거리두기 2주 연장 전망 2020년 05월 04일 15시 20분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 사진 출처 = 제주특별자치도 정부가 오는 6일부터 생활 속 거리두기(생활 방역) 시행을 발표한 가운데, 제주특별자치도는 현 사회적 거리두기 지침을 2주 더 연장할 것으로 보인다. 지난 30일부터 이어진 황금연휴 기간 약 20만 명이 제주를 방문한 만큼 방역을 강화해야 한다는 방침이다. 4일 오전 브리핑에서 제주도 임태봉 보건복지여성국장은 "연휴 기간 20만 명이 제주를 다녀갔기 때문에 예의주시할 필요가 있다"라며 "앞으로 2주간 현재 사회적 거리두기 기조로 간다"라고 말했다. 원희룡 제주도지사도 이날 오전 유튜브를 통해 진행된 도청 내부 직원 조회에서 방역 체계 유지를 당부했다. 원 지사는 "제주는 공항과 항만이라는 관문을 통해 관광객이 들어오고 이동 동선과 사회적 접촉이 많기 때문에 전국이 생활 방역으로 완화하더라도 제주 나름의 튼튼한 방역 체계를 유지해가야 한다"라며 "제주형 방역 체계를 어떻게 유지할지 모두가 머리를 맞대 지혜로운 방안을 찾아야 한다"라고 강조했다. 제주도 관계자는 "정부의 공식적인 사회적 거리두기 방역 종료(5일) 이후인 6일 제주도 사회적 거리두기 관련 내용을 공식 발표할 것"이라고 전했다. YTN PLUS 문지영 기자(moon@ytnplus.co.kr)[저작권자(c) YTN 무단전재 및 재배포 금지] 사회 기사목록 전체보기 병원 방문 어려운 노인 위한 '찾아가는 의료' 12월부터 시범사업 환경부, 중국산 오토바이 배출가스 조작 의혹 조사 "국민연금, 술·담배·도박 등 '죄악주'에 5조3천억 원 투자" 오늘부터 개량백신 접종...신규 확진 1만 5,476명 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>황금연휴 기간 관광객 19만6138명 제주도 찾았다 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 황금연휴 기간 관광객 19만6138명 제주도 찾았다 파이낸셜뉴스입력 2020.05.06 15:32수정 2020.05.06 17:56 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 제주국제공항 146명 코로나19 검체 검사 모두 ‘음성’안전관광 '무게'…관광트렌드 변화에 주목 대책 마련 제주국제공항 국내선 도착장에서 공항 관계자들이 열화상 카메라를 이용해 승객 발열검사를 하고 있다. /사진=fnDB [제주=좌승훈 기자] 제주특별자치도는 황금연휴인 지난 4월29일부터 5월5일까지 일주일 동안 제주를 찾은 관광객은 19만6138명으로 잠정 집계됐다고 6일 밝혔다. 이는 지난해 같은 기간 31만5186명과 비교해 37.8% 감소한 것이다. 1일 평균 관광객은 2만8000여명이다. 내국인은 이 기간에 19만5538명이 입도해 지난해 28만2825명에 비해 30.9% 감소했다. 외국인은 600명으로 지난해 3만2361명보다 98.1%나 떨어졌다. ■ 마스크 착용 60% 수준…야외 관광지 선호 뚜렷 도는 이번 연휴를 대비해 제주도관광협회·제주관광공사와 함께 비상상황실을 가동하고, 공항·항만을 거점으로 873개의 사업체에 대해 사전 방역관리 이행 상황과 현장 모니터링을 집중적으로 추진했다. 관광객들은 주로 렌터카를 타고 가족 단위 또는 2인 형태로 실내 관광지보다는 한라산 국립공원을 비롯해 야외 관광지 방문하는 특징을 보였다. 마스크를 착용한 관광객은 전체적으로 60% 수준이었다. 실내 관광지 방문객은 대부분 마스크를 착용했고, 관람 중 마스크를 벗는 경우에도 스스로 사회적 거리두기에 동참하는 분위기인 것으로 파악됐다. 감염병 예방 수범사례도 눈에 띄었다. 서귀포시 안덕면에 있는 사설 A관광지는 경영여건이 어려운 데도 연휴 기간 200여대의 관광객 차량 내·외부를 직접 소독해줬다. 공영 B관광지는 야외시설임에도 비대면 프로그램을 기획 운영함으로써 여행 자체가 사회적 거리두기임을 보여주는 사례로 꼽혔다. 또 연휴기간 중 제주공항 선별진료소에서 관광객 146명이 코로나19 검체 검사를 진행한 가운데 137명이 음성판정을 받았다고 밝혔다. 5일 검사를 한 9명은 6일 오후 늦게 결과가 나올 예정이다. 강영돈 도 관광국장은 “앞으로 ‘안전관광’을 키워드로 관광산업 전반에 생활방역 체계가 뿌리내리도록 하겠다”며 “특히 코로나19에 따른 관광 트렌드 변화에 적극 대응하고, 피부에 와 닿는 경제회생 대책을 내놓겠다”고 말했다. 한편 도는 자체 회의를 통해 '고강도 사회적 거리 두기'를 2주 연장하기로 결정했다. 도는 6일부터 이뤄지는 정부의 '생활 속 거리 두기' 전환 방침과 별개로 도 차원의 고강도 예방 조치가 필요하다고 설명했다. 도는 제주공항과 제주항, 관광지, 숙박업소를 중심으로 방역체계를 현행대로 유지하고, 체육시설과 공공도서관의 개방 시기도 오는 19일까지 늦추기로 했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>김태석 제주도의회 의장 "방역·관광 공존시스템 구축해야" 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 김태석 제주도의회 의장 "방역·관광 공존시스템 구축해야" '제382회 도의회 임시회 개회식' 개회사 통해 밝혀 (제주=뉴스1) 오미란 기자					| 2020-05-14 15:02 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 김태석 제주도의회 의장(제주시 노형동 갑·더불어민주당).(제주도의회 제공)© 뉴스1 김태석 제주도의회 의장(제주시 노형동 갑·더불어민주당)이 14일 제주도에 방역과 관광이 공존하는 산업시스템을 구축할 것을 당부했다.김 의장은 이날 제382회 도의회 임시회 개회식에서 개회사를 통해 "이태원 클럽 코로나19 집단감염 사태를 계기로 코로나19와 방역, 일상이 공존하는 제주를 어떻게 구축해 나갈 것인가 깊이 고민해야 한다"며 이 같은 입장을 밝혔다.김 의장은 "제주에 오지 말라는 호소는 도민의 신체적 생존을 위한 필수 조치이기는 하지만 경제적 생존을 고민하는 도민에게는 모진 조치"라며 "지역 경제를 지탱하는 기반산업이 관광산업인 제주로서는 이러한 양면적인 영향을 깊이 인식하는 정책적 노력이 필요하다"고 말했다.그는 특히 "코로나19는 장기화될 것이 자명하다"며 "방역과 관광이 공존하는 산업시스템의 구축이 제주의 경제를 살리는 초석이 될 것"이라고 강조했다.그는 또 "우리는 유례 없는 위기상황에서 가장 끝단으로 내몰리는 이들이 누구인지 목도했다"며 "영세 자영업자, 특수고용직 근로자, 플랫폼 노동자 등을 위한 사회안전망 구축 노력이 필요한 때"라고 덧붙였다.김 의장은 "감염 위험을 최소화하는 관광시스템과 일하는 모두를 위한 사회안전망을 위해 도정의 노력을 집중해 달라"고 거듭 당부했다. mro1225@news1.kr &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 유명 래퍼, 객석 다이빙…땅바닥 '툭' 굴욕 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 대통령실까지 행진하는 배민 라이더 정진석 "이재명 '日軍 주둔설' 文 '김정은 비핵화 약속'…양대 망언 취업, 그 간절한 마음 'K패션의 미래가 한자리에' [국감]유병호 "문자 송구스러워…소통은 정상적" 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 탭메뉴 스포츠 연예 스타일 스포츠 9부 능선 넘었어도 긴장 풀지 않은 홍명보 감독 "아직 우승 아닌데…" 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도 관광협회 "입도 관광객 3만 명 가까이 증가" :: 매일경제TV 뉴스 매일경제 MBN MBNGOLD 매경증권아카데미 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 로그인 회원가입 고객센터 TV TV홈 채널안내 편성표 전체프로그램 뉴스 뉴스홈 전체 경제&amp;금융 증권 산업 부동산 지방뉴스 증권 증권홈 현재가 투자전략 뉴스 시세 마이스탁 부동산 온에어 채널안내 편성표 통합검색 종목검색 검색 닫기 제주도 관광협회 "입도 관광객 3만 명 가까이 증가" 기사입력 2020-05-22 15:12 22일 제주도 관광협회는 21일 기준 제주 입도 관광객이 2만9천908명을 기록했다고 발표했습니다. 이는 황금연휴 첫날인 지난 4월 30일 제주를 찾은 관광객 4만6천940명에는 미치지 못하는 수치이지만, 조만간 3만 명대를 회복할 수 있다는 긍정적인 전망으로도 풀이됩니다. 또한 제주국제공항 항공기 운항횟수는 지난 4월 21일 기준 224편에서 이달 21일 기준 359편으로 60.3％ 늘어난 것으로 나타났습니다. 이에 따라 항공사들은 코로나19 사태로 제주노선 항공기 운항을 기존의 50％ 수준으로 크게 줄였지만, 황금연휴 이후 70∼80％ 수준으로 늘린 상태입니다. [박상미 인턴기자 / alisten@mk.co.kr] [ⓒ 매일경제TV &amp; mktv.co.kr, 무단전재 및 재배포 금지 ] 화제의 뉴스 · 코스피 2% 가까이 하락…2,193.02 개장 · [특징주] LG전자, 3분기 실적 실망에 장 초반 하락세 · 이달 10일까지 수출 20%감소…무역적자 38억 달러 · 오늘부터 일본 무비자 관광 가능…2년 7개월 만 · 오늘부터 개량백신 접종 시작 오늘의 이슈픽 인기 영상 영상아이콘 삼성전자 3분기 '어닝쇼크'…반도체 수요 감소·가격 하락에 영업이익 32... 영상아이콘 제약바이오업계, 4분기 채용문 '활짝'…종근당·대웅제약 등 80여개사, ... 영상아이콘 볼보의 수입차 3위 도약 '비밀병기' S60·V60, 동시 출격 영상아이콘 이재준 수원시장 "시민 주체 행정혁신"…취임 100일 비전 선포 게시물 삭제기준 가장 많이 본 뉴스 1우크라전에 정신 빼앗겨 '뒷마당'도 못챙기는 러시아 2돌고래 250마리 또 집단 폐사…왜 이런 일 반복될... 3"꼬박꼬박 국민연금 낸 우린 뭔가"…기초연금 40만... 4"밀크티 싸다 좋아했죠? 사실 우유 안 넣었다"…가... 5청년들 몰려 월세마저 품귀…"집도 안 보고 계약금 ... 6신라젠·코오롱티슈진 증시퇴출 여부 이달 결론 7[주간증시전망] 한국은행 금통위·미국 CPI에 주목 8[주간증시전망] 실적 부진·금리 인상에 변동성 확대... 9평택시, 고덕 삼성반도체에 8개월간 수도 요금 5배... 10"이럴거면 왜 미리 발표했나"…행복주택 공급일정 줄... 투데이 포커스 코스피 2% 가까이 하락…2,193.02 개장 [특징주] LG전자, 3분기 실적 실망에 장 초반 하락세 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1% 내려 오늘부터 개량백신 접종 시작 [오늘 날씨] 전국 출근길 5도 내외…낮 최고 21... 화제의 뉴스 제조업 4분기 경기 전망 먹구름…신산업·ICT도 부진 근로소득 상위 0.1%·평균 연봉 8억인데 세금 '0원'인 사람 8명 7년간 외국인이 국내 아파트 3만 채 구입…중국인 62% 마요네즈·국수 3개월 연속 가격 올랐다 지난해 조세회피 투자 100억 달러 넘어…해외투자 15% 차지 포토뉴스 매일경제TV 소개 이용약관 개인정보취급방침 기타운영정책 고객센터 시청자제보 광고제휴안내 RSS Family Site MBN 매일경제 매경닷컴 MBNGOLD 매경이코노미 CITYLIFE M-PRINT 방송프로그램 02-2000-4999 매일경제TV의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. (주)매일경제TV I 대표이사 장용수 I 서울시 중구 퇴계로 190 매경미디어센터 Copyright © 매일경제TV All rights reserved.</t>
+  </si>
+  <si>
+    <t>마스크 벗는 관광객들…북적이는 제주도 방역 비상 : 서울경제 주 메뉴 바로가기 본문내용 바로가기 시그널 디센터 라이프점프 서울경제TV 미주한국일보 서울경제골프 전종목시세 e-Paper 구독안내 마이페이지 로그인 이전 다음 전체메뉴 검색 전체메뉴 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 서경 TV·방송 영화 가요 포토 검색 닫기 검색 #송현동 부지, 시민 품으로 #취득세 쇼크 #가장 쎈 독감 온다 #여가부 폐지 #벼랑 끝 이준석 #눈 먼 돈 된 태양광 대출 #실외 마스크 전면 해제 #노벨상 #김정은 딸 김주애 #어썸머니 닫기 전체서비스 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 사회 사회일반 전국 사회이슈 피플 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 오피니언 사설 사내칼럼 사외칼럼 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 영상 · 포토 영상 포토 카드뉴스 서경스타 TV·방송 영화 가요 포토 회사소개 회사소개 CEO 인사말 서울경제가 걸어온 길 행사 및 시상 약도 및 연락처 업무문의 구독안내 광고안내 이용안내 개인정보취급방침 이용약관 청소년 보호정책 고충처리인 제보 이메일 뉴스레터 텔레그램 뉴스채널 소식 공지사항 이벤트 알립니다 스페셜 컨텐츠 All Headline Awesome Money 기자채널 이슈 연재 e-Paper 뉴스아카이브 전체기사 스타즈 클럽 백상경제연구원 아웃링크 서경골프 이달의과학기술인상 서울포럼 존경받는 기업·기업인 대상 구독 l Subscription 구독신청 이용약관과 개인정보취급방침을 읽었으며, 이에 동의합니다. (필수) 이메일을 통한 서울경제의 서비스 및 이벤트 정보 수신에 동의합니다. (선택) 팝업창 닫기 공유하기 facebook twitter kakao email 복사 이메일보내기 사회일반 urlhttps://www.sedaily.com/NewsView/1Z2LFVWPXE 보내는 사람 받는 사람 ※ 여러명에게 보낼 경우 콤마(,)로 구분하세요. 확인 취소 홈 사회 사회일반 마스크 벗는 관광객들…북적이는 제주도 방역 비상 입력2020-05-02 13:20:10 수정 2020.05.02 13:52:29 정민수 기자 facebook 공유 twitter kakao email 복사 뉴스듣기 가 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 기사저장 저장된기사목록 기사프린트 해수욕장, 해변도로, 한라산…인파·차량으로 북새통 황금연휴기간 예상 인파 크게 웃돌아, 방역 당국 ‘긴장’ viewer 황금연휴 사흘째인 2일 제주 중문해수욕장에서 마스크를 벗은 관광객들이 길을 걷고 있다. 왼쪽부터 마스크를 팔찌처럼 손목에 차거나 대충 턱에 걸친 관광객, 마스크를 아예 쓰지 않은 관광객의 모습./연합뉴스황금연휴 사흘째인 2일 제주도 내 주요 관광지는 연일 제주도민과 관광객들로 북적였다.이날 제주시 함덕·협재·이호·김녕·월정리 해변과 서귀포시 중문·표선 등 주요 해변 등에는 해양 레포츠를 즐기거나 바닷가를 거니는 사람들이 많았다. 제주의 주요 해안도로 역시 드라이브를 나온 인파가 넘쳐났다. 해안도로 중에서도 특히 아름답기로 소문 난 ‘애월 해안도로’, ‘신창 풍차 해안도로’, ‘사계 해안도로’ 등에는 오가는 차량과 갓길 주차 차량들이 얽혀 혼잡을 빚었다.한라산에도 아침부터 많은 등반객이 몰렸다. 한라산국립공원 성판악 탐방로 입구 주차장은 자동차들이 가득 차면서 반대편 갓길까지 차가 점령해 혼잡한 모습이었다. 제주 중문관광단지 내 여미지식물원 등 실내 관광지를 찾는 관광객의 모습도 눈에 띄었다. 그러나 관광객 상당수는 마스크를 턱에 걸치거나 아예 쓰지 않은 채 대화하며 길을 걷는 등 코로나19 감염에 대한 경계심을 내려놓은 모습이었다.제주를 찾은 관광객 수가 연일 예상치를 크게 웃돌며 방역 당국을 긴장케 하고 있다. 제주관광협회에 따르면 황금연휴를 하루 앞둔 지난 4월 29일부터 5월 1일까지 3일간 제주를 찾은 관광객은 11만6,113명으로 당초 예상한 8만1,912명보다 42.1％(3만4,201명) 많았다. 연휴 초반 매일 적게는 5,000여명, 많게는 1만6,000여명씩 예상치를 웃도는 관광객이 제주를 찾았다. 오는 5일까지 이어지는 징검다리 연휴 기간 전체 방문객 숫자도 애초 예상한 17만9,000여명을 훨씬 뛰어넘는 22만여명에 달할 것이란 전망이 나온다. 제주도 방역 당국은 “실외 관광지에서 사회적 거리 두기가 이뤄지고 있긴 하지만, 관광객의 60％ 정도만 마스크를 착용한 상태로 확인됐다”며 마스크 착용 등 방역지침을 준수해 달라고 당부했다. viewer 황금연휴 사흘째인 2일 제주 서귀포시 중문관광단지 내 여미지식물원을 찾은 관광객들의 모습이다./연합뉴스 viewer 황금연휴 사흘째인 2일 제주 한라산국립공원 성판악 탐방로 입구 516도로 갓길에 제주도민과 관광객의 주정차 차량이 세워져 혼잡이 빚어지고 있다./연합뉴스/정민수기자 minsoojeong@sedaily.com &lt; 저작권자 ⓒ 서울경제, 무단 전재 및 재배포 금지 &gt; # 관련태그 #제주도, # 코로나19, # 마스크, # 방역 ※ 본 사이트에 게재되는 정보는 오류 및 지연이 있을 수 있으며, 그 이용에 따르는 책임은 이용자 본인에게 있습니다. 구독 정민수 기자 디지털미디어센터 minsoojeong@sedaily.com 정경심 일시 석방…고민정 "늦었지만 다행, 쾌유 빈다" 전처 찾아가 흉기 휘두른 60대 男…자녀들 선처 요구에 기자채널로 이동 오늘의 핫토픽 # 송현동 부지, 시민 품으로 # 취득세 쇼크 # 가장 쎈 독감 온다 # 여가부 폐지 # 벼랑 끝 이준석 오늘의 이슈 #이준석 추가 징계 유승민 "정진석, 이재명 덫에 놀아나…비대위원장 사퇴해야" #국감 초점 "민간인 사찰"…국토위 국감장에서도 '감사원' 도마 위에 #감사원 '文 서면조사' 논란 박홍근 “감사원, 前정부인사 민간인 시절기록 사찰…공수처 고발할 것” #마약민국 묻지마 폭행하고 "마약 했다"는 남성…경찰이 돌려보냈다 #尹, 비속어 논란 "키스 5단계는" "치마 짧으면 좋다"…중학교 선생님이 건넨 농담 이시간 주요 뉴스 영상 뉴스 생방송 중 러 미사일 '쾅'…BBC 특파원 긴급 대피 '아찔' '컴백홈' 지금의 날 만들어 준 고향, 구수하고 정겹다 도로 위 '모세의 기적'…경찰·택시기사, 환자 생명 구했다 한미, 北 대응 사격중 미사일 오발…강릉서 '폭발 화재' 넷상 초밀착 웹드라마 '밈의 생활화', 손우민♥김도림 커플 싸움 직관…결말은? 인기 포토 뉴진스 목격! 든든하軍 심장에 한 발! 양조위의 화양연화 샤넬♥제니 저항하라 부산 찾은 스타들 프로스트! 오늘의 연재 SE★시리즈 드림캐쳐 다미, 그룹의 중심이 바로 나야 [SE★포토] 한입뉴스 CU×미래에셋페이 ‘편털’ 이벤트 진짜 ‘편털’에 조기종료[한입뉴스] 주식 초고수는 지금 "지금 사면 손해 안 본다?"…삼성전자·NAVER 줍줍[주식 초고수는 지금] 뒷북비즈 4C 덫에 걸린 K반도체…“국가대항전서 낙오될 수도” [뒷북비즈] 서경 디지털 38개의 포토 든든하軍 23개의 포토 양조위의 화양연화 18개의 포토 저항하라 76개의 포토 샤넬♥제니 EBITDA 마진율 회계기준에 따른 차이를 제거한 현금기준 실질 수익성 판단 지표로, 매출을 통해 어느정도의 현금이익을 창출 했는가를 의미한다. 즉, EBITDA마진율은 매출액 대비 현금창출능력으로 볼 수 있으며, 일반적으로 마진율이 높을수록 기업의 수익성이 좋다고 판단할 수 있다. EBITDA마진율 = (EBITDA ÷ 매출액)*100% 1. 코주부 코인, 주식, 부동산 투자 정보만 쏙쏙! 코주부와 성투해요. 2. 지구 나랑 상관 있는 친환경 뉴스. 매주 화·목요일에 만나요. 3. Daily Brief 매일 아침, 데일리브리프가 핵심 경제 뉴스를 전해드립니다. 4. 연재기사 서울경제의 모든 연재기사를 메일함에서 받아보실 수 있습니다. 5. 스타기자 서울경제의 스타기자를 구독하세요. 기사가 출고되면 이메일로 알려드려요. 증권 지수정보 종목정보 국내증시 공시 종목·투자전략 정책 해외증시 채권 재테크 IB&amp;Deal 증권정보 증권일반 News봇 부동산 정책·제도 분양 주택 오피스·상가·토지 건설업계 간접투자 부동산일반 경제 · 금융 경제동향 정책 공기업 경제분석 금융정책 은행 카드 보험 제2금융 재테크 금융가 경제·금융일반 산업 기업 중기·벤처 생활 IT 바이오 산업일반 오피니언 사설 사내칼럼 사외칼럼 정치 대통령실 국회·정당·정책 총리실 통일·외교·안보 정치일반 문화 · 스포츠 라이프 문화 방송·연예 스포츠 자동차 사회 사회일반 전국 사회이슈 피플 영상 · 포토 영상 포토 국제 정치·사회 경제·마켓 기업 인물·화제 국제일반 서경스타 TV·방송 영화 가요 포토 공지 [알립니다] 서울경제 개인정보취급방침 변경 공지 회사소개 광고안내 개인정보취급방침 이용약관 청소년보호정책 제보 고충처리인 초판보기 전체기사 뉴스아카이브 관련사이트 미주한국일보 서울경제TV 시그널 레이디스클래식 디센터 라이프점프 더폴리틱스 서울경제골프 백상경제연구원 이달의 과학기술인상 서울포럼 주소 : 서울특별시 종로구 율곡로 6 트윈트리타워 B동 14~16층 대표전화 : 02) 724-8600 상호 : 서울경제신문사업자번호 : 208-81-10310대표자 : 이종환등록번호 : 서울 가 00224등록일자 : 1988.05.13발행 ·편집인 : 이종환 인터넷신문 등록번호 : 서울 아04065 등록일자 : 2016.04.26발행일자 : 2016.04.01 서울경제의 모든 콘텐트는 저작권법의 보호를 받는 바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright ⓒ Sedaily, All right reserved 서울경제를 팔로우하세요! 서울경제신문 텔레그램 뉴스채널 서울경제 어썸머니 모바일 버전 보기</t>
+  </si>
+  <si>
+    <t>황금연휴 제주도 관광객 20만명 전망…방역당국 초긴장 - 사회 &gt; 기사 - 더팩트 HOME &gt; NEWS &gt; 사회 &gt; 사회일반 황금연휴 제주도 관광객 20만명 전망…방역당국 초긴장 입력: 2020.05.02 15:04 / 수정: 2020.05.02 15:04 오는 5일까지 이어지는 '황금연휴'를 맞아 제주를 방문하는 관광객이 20만명에 달할 것으로 보인다. /더팩트 DB"5일까지 비상상황실 운영…사각지대 없도록 총력"[더팩트｜윤정원 기자] 지난달 말부터 이달 초까지 이어지는 '황금연휴'를 맞아 제주를 방문한 관광객이 12만명에 달하는 것으로 나타났다. 오는 5일 어린이날까지 연휴가 이어지는 곳도 많아 이 기간까지 고려한다면 전체 관광객 수는 20만명을 넘어설 전망이다.2일 제주도에 따르면 지난달 29일부터 이달 1일까지 3일간 제주도 입도객은 11만3600명이다. 1일 하루에만 3만406명이 찾았다. 내국인 관광객은 3만308명, 외국인은 98명이었다. 작년 근로자의 날에 제주도를 방문한 관광객이 4만5894명이 방문했던 것과 비교하면 올해는 33.7%가 감소한 수준이다. 그러나 코로나19 확산 이후 하루 평균 입도객 수가 전년 동기 대비 절반 이하였던 점을 고려하면 최근 제주도를 찾는 관광객은 눈에 띄게 급증했다.문제는 공항에 도착할 때와 달리 해변에 나온 관광객 절반 이상은 마스크를 벗고 2m 거리두기 실천을 하지 않는 등 경계심을 내려놓은 모습이 비일비재하다는 점이다. 협재 해변 인근 유명 식당에서 입장 순서를 기다리는 관광객들은 다닥다닥 붙어 줄을 서고, 제주도 권고에도 식당 내 거리 유지는 지켜지지 않는 상황이다.지난달 30일부터는 체온 37.3도 이상 입도객은 코로나19 진단검사가 의무적으로 실시되고 있다. 하지만 제주도 자체 조사 결과 야외에서는 관광객의 60%만 마스크를 착용한 상태로 확인돼 마스크 착용률은 높지 않은 것으로 나타났다.강영돈 제주특별자치도 관광국장은 "초긴장 상황으로 오는 5일까지 비상상황실을 운영하면서 110여개의 관광지를 2차적으로 점검하며 예방수칙 준수를 독려할 계획"이라며 "선제적인 대응뿐만 아니라 어린이날을 앞두고 도민들이 몰릴 것으로 예상되는 키즈 카페 등 사각지대가 발생하지 않도록 총력을 기울여 나가겠다"고 밝혔다.한편 황금 연휴기간 발열증사를 나타내 검사를 받은 사람은 4명이며, 이 가운데 코로나 양성 반응을 보인 입도객은 없는 것으로 전해졌다.garden@tf.co.kr 발로 뛰는 &lt;더팩트&gt;는 24시간 여러분의 제보를 기다립니다. ▶카카오톡: '더팩트제보' 검색 ▶이메일: jebo@tf.co.kr ▶뉴스 홈페이지: http://talk.tf.co.kr/bbs/report/write - 네이버 메인 더팩트 구독하고 [특종보자▶] - 그곳이 알고싶냐? [영상보기▶] #황금연휴#제주여행#코로나19 AD 인기기사 실시간 TOP10 정치 경제 사회 연예</t>
+  </si>
+  <si>
+    <t>제주도 생태관광 활성화 집중 투자 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 생태관광 활성화 집중 투자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 생태관광 활성화 집중 투자 기자명 이은지 기자 입력 2020.05.10 14:56 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도가 생태관광 활성화에 나선다. 제주도는 올해 총 52억원의 예산을 투입해 다양한 생태관광 프로그램 개발과 주민 참여 방안을 마련한다고 10일 밝혔다.생태관광은 자연자산의 보전 및 현명한 이용을 통해 환경의 중요성을 체험할 수 있는 자연친화적인 관광을 말한다.도는 ㈔생태관광협회(대표 고제량)에 위탁, 생태관광 활성화 사업을 추진한다. 주요사업은 생태관광 자원조사 및 실태조사, 역량교육 및 지원, 제주 특화생태관광 컨텐츠 등 프로그램 개발 등이다. 도는 생태관광 육성에 관한 사항을 심의·자문하기 위해 생태관광협의체, 단체, 전문가를 위촉, 제3기 생태관광위원회를 재구성했다. 박근수 환경보전국장은 "우리도의 우수한 생태자원을 활용한 생태관광의 내실화와 저변 확대는 물론 지역주도 자립형 생태관광기반체계 구축에 앞장서 나가겠다"고 말했다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 이달 말 오라관광단지사업 심의 예정 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 제주도, 이달 말 오라관광단지사업 심의 예정 입력 2020.05.09 (21:54) 수정 2020.05.09 (22:01) 뉴스9(제주) 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 제주 최대 규모인 오라관광단지 개발사업을 심의하기 위한 제주도개발사업심의위원회가 이달 말 열릴 예정이어서 결과가 주목됩니다. 오라관광단지 사업자인 JCC는 당초 투자 그룹의 제무재표와 감사보고서 등을 첨부한 개발사업심의 자료를 지난달 말까지 제출하기로 했지만 자료제출이 늦어져 개발사업심의도 이달 말로 연기됐습니다.제주도는 JCC가 관련 자료를 제출하는대로 개발사업심의위를 열어 사업자 적격 여부와 투자 재원확보 적정성 을 등을 심의할 예정이어서 심의 결과에 관심이 쏠리고 있습니다. 제주도, 이달 말 오라관광단지사업 심의 예정 입력 2020-05-09 21:54:09 수정2020-05-09 22:01:50 뉴스9(제주) 제주 최대 규모인 오라관광단지 개발사업을 심의하기 위한 제주도개발사업심의위원회가 이달 말 열릴 예정이어서 결과가 주목됩니다. 오라관광단지 사업자인 JCC는 당초 투자 그룹의 제무재표와 감사보고서 등을 첨부한 개발사업심의 자료를 지난달 말까지 제출하기로 했지만 자료제출이 늦어져 개발사업심의도 이달 말로 연기됐습니다.제주도는 JCC가 관련 자료를 제출하는대로 개발사업심의위를 열어 사업자 적격 여부와 투자 재원확보 적정성 을 등을 심의할 예정이어서 심의 결과에 관심이 쏠리고 있습니다. 기자 정보 조강섭 기자 wtl21@kbs.co.kr 조강섭 기자의 기사 모음 댓글 좋아요 공유하기 제주-주요뉴스 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>관광객 끊긴 제주도, 서비스업 생산·소매판매 하락률 '역대 최대' | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 관광객 끊긴 제주도, 서비스업 생산·소매판매 하락률 '역대 최대' 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 관광객 끊긴 제주도, 서비스업 생산·소매판매 하락률 '역대 최대' 기자정보, 기사등록일 최다현 기자 입력 2020-05-07 12:00 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 서울·경기 제외 14개 시·도 서비스업 생산 감소… 5개 지역은 첫 역성장 전남 제외 15개 시·도 소매판매 하락… 10개 시·도 하락률 역대 최대 신종 코로나바이러스 감염증(코로나19) 여파로 1분기 시·도별 서비스업 생산이 서울과 경기도를 제외한 14개 시·도에서 감소한 것으로 나타났다. 소비를 나타내는 소매판매 또한 전남을 제외한 15개 시·도에서 부진했다. 관광객의 발걸음이 끊긴 제주도는 생산과 소비 모두 역대 최대 하락폭을 기록했다. 통계청이 7일 발표한 '2020년 1/4분기 시·도 서비스업생산 및 소매판매 동향'에 따르면 코로나19 여파로 1분기 서비스업 생산은 1.1%, 소매판매는 2.9% 하락한 것으로 집계됐다. 관광객의 발길이 끊긴 제주도의 서비스업 생산은 전년 대비 10.3% 하락했다. 제주도의 서비스업 생산은 관련 통계를 작성한 2000년 이래 처음으로 역성장했다. 제주도 뿐만 아니라 인천(-4.0%), 광주(-0.3%), 충청남도(-2.6%), 경상북도(-4.3%) 또한 통계 작성 이래 첫 마이너스 성장을 기록했다. 마이너스 성장을 기록한 나머지 지역도 통계 작성 이래 최대 감소폭을 기록한 것으로 나타났다. 제주도는 정보통신(-28%), 숙박·음식점(-23.8%), 예술·스포츠·여가(-22.4%), 사업시설관리·사업지원·임대(-11.9%) 등 관광객의 이용 비중이 높은 부문을 중심으로 하락세가 컸다. 관련기사강원도관광재단, '강원 워케이션 프로젝트' 골드 어워드 수상대구 달성군, 제27회 달성군민의 날 기념 군민체육대회 성료 코로나19의 진원지가 된 대구(-4.4%)와 경북(-4.3%)도 정보통신, 숙박·음식점, 운수·창고 등에서 부진했다. 서울 또한 운수·창고(-17.8%), 예술·스포츠·여가(-33.8%)를 중심으로 생산이 감소했지만 금융·보험(15.4%)과 부동산(24.5%), 정보통신(4.5%) 등에서 생산이 증가해 전년 동기 대비 2.3% 증가한 것으로 나타났다. 소매판매는 전남을 제외한 15개 시·도에서 역성장했다. 이중 △제주도(-14.8%) △대구(-9.9%) △인천(-9.1%) △서울(-7.9%) △대전(-7.5%) △부산(-6.5%) △광주(-5.6%) △울산(-5.2%) △강원도(-3.5%) △경기도(-2.3%) 등 10개 시·도는 소매판매 하락률이 통계 작성 이래 최대치를 기록했다. 가장 큰 하락률을 보인 곳은 제주도로, 전년 동기 대비 14.8%나 감소했다. 제주도의 소매판매는 2017년 2분기 사드(THAAD) 배치 여파로 중국인 관광객들이 줄어들면서 -3.9%를 기록한 바 있다. 이번 역성장은 역대 두 번째 이자 규모로는 역대 최대 수준이다. 제주도 소매판매 하락은 면세점 매출이 47%나 대폭 하락한 여파로 풀이된다. 마찬가지로 인천의 소매 판매도 면세점 매출이 41.5% 줄어들면서 타격을 받았다. 전남은 슈퍼와 편의점을 중심으로 오히려 소비가 증가했다. 통계청 관계자는 "1분기 소매판매의 특징은 백화점과 전문판매점의 매출은 줄어들고 편의점·슈퍼 매출은 증가했다는 점"이라며 "전남은 백화점의 매출 비중이 적었고 지난해 하락했던 기저효과로 오히려 소매판매가 성장한 것으로 나타났다"고 설명했다. [통계청 제공] #서비스업생산 #소매판매 #제주도 #코로나19 좋아요0 화나요0 추천해요0 기자 정보 최다현 chdh0729@ajunews.com 기자의 다른 기사 보기 기사제보 하기 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 2신화 신혜성, 도난차량서 음주측정 거부로 체포 32년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 4'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 5中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 6세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 7국경절 연휴 마친 증시…호재 뒤늦게 반영할까 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재 가격·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 1'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 2尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4김두관 의원 "코레일 근무태만 천태만상 심각" 5'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 6​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1신화 신혜성, 도난차량서 음주측정 거부로 체포 2쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 3감사원 국감 D-1...여야 '강대강' 격돌 예고 4베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 5대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 6강원도관광재단, 전국 최초 워케이션 상담회 개최 7前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2원자재 가격·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 3버티거나 매각하거나…M&amp;A 스타트업 면면은 4"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Shell and DNV work with S. Korean companies to demonstrate SOFC on LNG carrier 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 軍 "北 저수지 SLBM 발사, 킬체인 의식한 궁여지책" "6~9개월 내 경기침체…美 증시 20% 더 떨어질 것" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>중문관광단지 맛집 색달식당, 갈치조림으로 제주도 향토의 맛 전하고파 회원가입·로그인 | 회사소개 UPDATE 2022.10.11 Tue. 검색 전체기사 데이터이슈 테크놀로지 빅데이터 인공지능 블록체인 정치·사회 경제 산업 연예·스포츠 연예 스포츠 문화·라이프 문화·라이프 학술행사 홈 &gt; 전체기사 &gt; 종합 중문관광단지 맛집 색달식당, 갈치조림으로 제주도 향토의 맛 전하고파 기사입력 : 2020-05-18 11:29:19 글자작게글자크게인쇄 페이스북 트위터 구글+ 카카오스토리 카카오톡 [빅데이터뉴스 이병학 기자] 3~5월 사이 봄철은 제주도에 많은 관광객들이 다녀가는 시기다. 곧 다가오는 휴애리나 축제 등 꽃축제를 보려는 사람들이 방문하고 있으며, 중문관광단지 등 봄철 기운을 느낄 수 있는 관광 코스가 도처에 있다. 색달식당 중문본점은 제주 향토 음식전문점으로 손님들에게 갈치조림을 선보이고 있다. 제주도는 갈치의 대표적인 수산지이며, 싱싱한 생물 갈치와 갈치회 등의 요리들이 많은 편이다. 색달식당 중문본점에서는 싱싱한 생물 갈치만을 사용해 요리를 하며, 제주도 특색이 살아있는 갈치조림 양념장을 고집하고 있다. 또한 통문어를 그대로 넣고 갈치와 함께 조림으로 먹는 통문어갈치세트도 있어 입맛에 맞춰 주문이 가능하다. 색달식당 관계자는 “제주도는 내륙 지방과 차이가 있어 같은 요리라고 하더라도 제주도 향토의 방식으로 조리한 음식은 사뭇 다른 맛을 낸다. 갈치조림 또한 마찬가지로 내륙 지방에서 먹는 것보다 매콤한 맛이 강하며, 갈치를 썰지 않고 통으로 넣고 조리하는 것이 특징이다”라고 말했다. 색달식당 중문본점은 중문관광단지에서 1분 거리에 위치해 중문을 방문하는 경우 방문이 용이하다. 또 더본 호텔과 제주 롯데호텔 등과 인접해 여행일정 중에 식사를 할 수 있다. 색달식당 중문본점은 매일 오전 9시 30분부터 저녁 9시까지 운영한다. 자세한 정보는 대표 홈페이지 또는 대표 전화로 문의가 가능하다.이병학 빅데이터뉴스 기자 news@thebigdata.co.kr &lt;저작권자 © 빅데이터뉴스, 무단 전재 및 재배포 금지&gt; 글자작게글자크게인쇄 페이스북 트위터 구글+ 카카오스토리 카카오톡 빅데이터 분석뉴스 더보기 한국서부발전 군산발전본부, 추석맞이 온누리상품권 등 1800만원 기부 손보업계 코로나19 직격탄 '부정률' 동반 상승…NH농협손보, 관심도 유일 급등 '사회적 거리두기' 캠페인 SNS 등 급속 확산…코로나19 조기 종식 중대 기로 칼럼 [기고] 당뇨환자 저혈당 증상시 응급처치법은 학술지 최태원 회장 "첨단기술 획기적 아이디어 필요"…KAIST 'GSI-2021 국제포럼' 참석 도로교통공단 학술지 '교통안전연구' 한국연구재단 등재 후보지로 뽑혀 GC녹십자웰빙, '코로나19 항바이러스 효능'…태반주사제 국제학술지 게재 KAIST, 28일 제5회 GSI-2021 국제포럼…글로벌 기술패권 주도 전략 논의 아모레퍼시픽, 동물실험대체법학회 학술 기여 우수단체 선정 LG디스플레이, 윤수영 CTO 국제정보디스플레이 학술대회 기조연설 삼성미래기술육성사업 지원 대학 연구팀, 차세대 반도체 소재 연구성과 국제 학술지 게재 국내외 ISSUE 1 증권플러스 투자자 78% “삼성바이오 송도 제2캠퍼스 부지 확보로 ‘초격차’ 완성” 예상 2 디지털 금융시대 '초읽기'... 은행·기업, AI 서비스 선보여 3 대학에 빅데이터 바람 분다 4 중국 지하철, 음성·안면 인식으로 탑승한다 5 美 트럼프 대통령 ‘블록체인 사이버 보안연구’ 법안 서명 6 인공지능이 가짜 음란물 영상 제작 7 [칼럼] 예측은 왜 하는가 8 [Big Data]소셜에서 정부 고용정책 불만 '폭발' 9 '과로사회' 한국...지난해 근로시간 OECD 3위 10 [암호화폐 논란⑤] ‘청와대 국민청원’...가상화폐 거래소 폐쇄 반대 7만명 돌파 韓 중견·중소 97% "5년 이내 AI 도입" 글로벌 AI 전문가 총출동...SKT AI 컨퍼런스 서울시, 'AI 수사관' 도입...불법대부·다단계 잡는다 빅데이터·AI·수소경제에 올인...5년간 10조 투입 워커힐 객실서 손님 맞는 AI '누구' 빅데이터뉴스 전체보기 전체기사 데이터이슈 국내해외 테크놀로지 빅데이터인공지능플랫폼블록체인IT 정치·사회 정치사회 경제 경제소상공인 산업 재계·일반증권·금융IT·전자자동차·항공화학·중공업건설·부동산제약·식품·화장품유통·물류·섬유 연예·스포츠 연예스포츠 문화·라이프 문화·라이프학술행사 신문사소개 기사제보 광고문의 개인정보취급방침 청소년보호정책 이메일무단수집거부 인터넷신문윤리강령 빅데이터뉴스(The BigData) | 발행인:임경오 | 편집인:임경오 | 청소년보호책임자:박정배 주소: 서울 영등포구 국회대로68길 23 정원빌딩 501호 (우편번호:07237)| 전화:02-2235-3738 | 팩스:02-2235-3739 정기간행물 등록번호: 서울 아04807 | 창간연월일:2012년 9월 18일 Copyright ⓒ 2012 빅데이터뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>[Pick] 황금연휴에 제주도 모여든 16만…"관광객 60%만 마스크 착용" | SBS 뉴스 뉴스 뉴스 본문 바로가기전체 메뉴 바로가기기사 검색창 바로가기 배너 닫기 SBS뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 대메뉴 리스트 분야별 다시보기 취재파일 팟캐스트 이슈 끝까지 판다 SBS8뉴스 SDF 분야별 다시보기 취재파일 팟캐스트 이슈 멀티미디어 |비디오머그 스브스뉴스 VOICE [Pick] 황금연휴에 제주도 모여든 16만…"관광객 60%만 마스크 착용" 라이브 제보하기 전체 메뉴 레이어 보기 SBS 뉴스 SBS 뉴스 - 브랜드 리스트 비디오머그 스브스뉴스 오디오 뉴스 - 보이스 인-잇 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 SBS 뉴스 - 퀵메뉴 리스트 |SBS |로그인 |회원가입 SBS 뉴스 - 전체 메뉴 분야별 - 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 - 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 - 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트 - 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 - 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 - 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 - 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 문명특급 기타 - 기타 메뉴 리스트 공지사항 자유게시판 SBS 뉴스 - 소셜 미디어 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 - 연관 프로그램 앱 소개 SBS D포럼 인-잇 SBS 뉴스 - 기사 검색 검색하기 SBS 뉴스 - 라이브 생방송 라이브 제보하기 전체 메뉴 레이어 닫기 검색하기 SBS 뉴스 SBS 뉴스 - 섹션 카테고리 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 SBS 뉴스 - TV 프로그램 다시보기 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오뉴스 취재파일 취재파일 Pick 코로나19 현황 사회 [Pick] 황금연휴에 제주도 모여든 16만…"관광객 60%만 마스크 착용" [Pick] 황금연휴에 제주도 모여든 16만…"관광객 60%만 마스크 착용" 이서윤 에디터 이서윤 에디터 Seoul 작성 2020.05.04 11:30 수정 2020.05.04 11:31 조회 조회수 프린트기사본문프린트하기 글자 크기 크게보기 글자크기 작게보기 이미지 확대하기 제주도에는 황금연휴를 만끽하려는 사람들 발길이 이어지면서 코로나19 사태 이후 가장 많은 관광객이 몰렸습니다. 제주관광협회가 공개한 자료에 따르면 연휴를 하루 앞둔 지난달 29일부터 어제(3일)까지 닷새동안 제주를 찾은 관광객은 16만여 명에 달하는 것으로 나타났습니다. 관광객 수가 첫 증가세를 보인 건 황금연휴가 시작된 지난달 30일 부처님오신날로, 이날 입도한 관광객 수는 4만 7천여 명에 달했습니다. 이는 지난해 공휴일보다도 2천 5백여 명 많은 수치입니다. 협회 측은 오는 5일 어린이날까지 추가로 제주를 찾는 관광객 수를 합하면 징검다리 연휴 동안 입도객 수는 총 20만여 명을 기록할 것으로 전망했습니다. 이미지 확대하기 제주 전역에 모인 인파로 '사회적 거리 두기'는 사실상 불가능했다는 지적도 나왔습니다. 특히 3일 오후에는 비가 내려 서귀포 여미지식물원, 테마 박물관 등 실내 관광지에 인파가 몰렸습니다. 갑자기 오른 기온 때문에 마스크를 턱에 걸치거나 아예 쓰지 않는 모습이 눈에 띄게 늘어나기도 했습니다. 제주도 방역 당국은 "현장 모니터링 결과 제주 실외에서의 관광객 마스크 착용률은 60% 수준"이라고 밝혔습니다. 제주도는 지난달 30일부터 제주공항에 특별입도절차를 도입해 방문객의 발열과 증상 여부를 철저히 검사하고 있습니다. 발열 감지 기준도 기존 37.5도에서 37.3도로 강화했습니다. '뉴스 픽' 입니다. (사진=연합뉴스) 페이스북으로 공유하기 트위터로 공유하기 네이버로 공유하기 SNS 공유버튼 더보기 카카오톡으로 공유하기 밴드로 공유하기 카카오스토리로 공유하기 url 주소 복사하기 URL 복사하기 X닫기 주소가 복사되었습니다.원하는 곳에 붙여넣기(Ctrl+V)해주세요. 확인 이 기사의 덧글 보기 0 이 기사 좋아요 하기 0 관련 뉴스 추천 뉴스 이 시각 인기기사 만취 운전하다 잠든 신혜성…왜 남의 차 몰았나 보니 공효진, 뉴욕서 비공개 결혼…'10살 연하' 배우자 누구? 종업원 때려죽인 업주…말다툼하다 '이 한마디' 때문에 영상 통화 걸어 성기 보여준 남성, 버스 정류장에서는… 권총에 머리 관통한 50대 남성 발견…"극단적 선택 추정" 많이 본 뉴스 더 저널 리스트 더 저널 리스트더 보기 마부작침 마부작침더 보기 페이지 최상단으로 가기 닫기 SBS 뉴스 비디오머그 스브스뉴스 인잇 보러가기 SBS 뉴스 공식 페이스북 SBS 뉴스 공식 트위터 SBS 뉴스 공식 카카오스토리 SBS 뉴스 공식 유튜브 앱 소개SBS 뉴스 모바일앱 다운받기 SBS D포럼 검색하기 SBS 뉴스 전체 메뉴 분야별 메뉴 리스트 최신 정치 경제 사회 국제 생활 · 문화 연예 스포츠 이슈 다시보기 메뉴 리스트 8뉴스 모닝와이드 주영진의 뉴스브리핑 오뉴스 나이트라인 뉴스토리 SBS 스페셜 라디오 뉴스 취재파일 메뉴 리스트 취재파일 월드리포트 軍심戰심 날씨와 기후 스포츠 비하인드 영상토크 팟캐스트- 메뉴 리스트 골라듣는 뉴스룸 VOICE 멀티미디어 메뉴 리스트 사실은 Pick 마부작침 끝까지 판다 더 보기 비디오머그 메뉴 리스트 전체보기 섹션 시리즈 About MUG 스브스뉴스 메뉴 리스트 스브스뉴스 스브스스토리 모닝스브스 바로가기 시청자 참여리스트 공지사항 자유게시판 뉴스제보 고충처리인(방송피해신고) 열린TV시청자세상 윤리경영신고 시청자 참여 리스트 닫기 About SBS리스트 SBS PR SBS IR 채용정보 이용약관 SBS 방송편성규약 개인정보처리방침 시청자위원회 영상판매 웹광고 SBS 제작협찬 SBS 방송기술 SBS 문화사업 SBS Prism Tower 아트컬렉션 고객센터 사이트맵 어바웃 SBS 리스트 닫기 SBS Family리스트 TY홀딩스 SBS디지털뉴스랩 SBS 콘텐츠허브 SBSi SBS Plus SBS Sports SBS Golf SBS Biz SBS연예뉴스 SBS M KIZMOM SBS 인터내셔널 SBS A&amp;T SBS M&amp;C SBS 문화재단 서암학술장학재단 SBS 기술인협회 SBS 아나운서 스튜디오S SBS 패밀리 리스트 닫기 지역민영방송리스트 강원 민방 광주 방송 대구 방송 대전 방송 부산 방송 울산 방송 전주 방송 청주 방송 제주 방송 지역민영방송 리스트 닫기 웹광고 개인정보처리방침 SBS 정보 서울특별시 양천구 목동서로 161 대표이사 박정훈 방송관련문의 (02)2061-0006 뉴스기사제보 (02)2113-6000 찾아오시는 길 SBS 디지털뉴스랩 정보 서울특별시 양천구 목동서로 161 대표이사 박진호 고객센터 문의 (02)2113-6700 Email sbsdlab@sbs.co.kr 사업자 번호 344-87-00992 기사배열 원칙 책임자 : 정호선 기사배열 기본 원칙 ⓒ SBS &amp; SBS Digital News Lab all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, '연휴 특수' 관광지 방역대응 비상상황실 가동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, '연휴 특수' 관광지 방역대응 비상상황실 가동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, '연휴 특수' 관광지 방역대응 비상상황실 가동 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.05.01 15:04 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × "마스크 착용, 실내 관광지 양호...실외는 60% 수준" 제주국제공항에서 입도객들을 대상으로 코로나19 확산 방지를 위한 특별입도절차가 이뤄지고 있다. ⓒ헤드라인제주 황금연휴가 시작된 후 제주도로 관광객들이 밀려드는 가운데, 도내 관광사업체의 코로나19 방역대응도 강도높게 진행되고 있다. 제주특별자치도는 지난 30일부터 제주도관광협회 및 제주관광공사와 함께 비상상황실을 설치해 가동하며 관광지와 호텔, 렌터카, 음식점 등 관광사업체 873개소의 방역상황에 모니터링을 강화하고 있다고 1일 밝혔다. 제주도는 지난 30일부터 체온 37.3도 이상 입도객에 대해서는 코로나19 진단검사를 의무적으로 실시하는 한편, 지난 27일과 28일에는 전체 관광 사업체에 대해 1차 집중 점검도 실시했다. 30일에는 29개 주요 관광지를 현장 방문해 코로나19 예방을 위한 방역지침 이행상황을 점검했다. 점검 결과 대부분의 실내관광지에서는 종사자와 관광객 대부분 마스크를 착용하고 있고, 열감지 체크 및 2m 거리두기 등이 철저히 이뤄지고 있는 것으로 확인됐다. 반면, 실외관광지에서는 사회적 거리두기는 이뤄지고 있었으나, 관광객 60%정도만 마스크를 착용한 것으로 나타났다. 강영돈 제주특별자치도 관광국장은 "연휴가 시작되면서 제주도는 초긴장 상황으로, 5일까지 비상상황실을 운영하면서 실내관광지를 중심으로 예방수칙 준수를 독려해 나갈 계획"이라며 "공‧항만에서의 선제적인 대응뿐만 아니라 어린이날을 앞두고 도민들이 몰릴 것으로 예상됨에 따라 키즈 카페 등 사각지대가 발생하지 않도록 총력을 기울여 나가겠다"고 밝혔다. 한편, 이번 황금연휴 기간 제주도를 방문하는 관광객은 22만명 정도에 이를 것으로 전망됐다. 첫날인 지난 30일 입도 관광객은 내국인 4만 6759명, 외국인 181명 등 총 4만 6940명으로 집계됐다. 이는 코로나19 위기상황이 경계단계로 격상된 2월 이후 가장 많은 규모이고, 지난해와 비교해 첫 증가세(내국인 기준 17.7% 증가) 전환이다. 제주도 입도 관광객은 코로나 사태 이전에는 하루 평균 4만여명이 입도했으나, 지난 2월부터는 2만명 내외 수준으로 급격히 떨어졌다. 4월 일평균 관광객이 1만 8000명이었다. 이번 연휴를 기점으로 제주도 관광객은 다시 폭증하는 추세를 보이면서 제주공항에서는 초비상적 방역대응인 '특별입도절차'가 진행되고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 연휴 첫날 '4만6940명' 제주 찾았다...코로나 사태 후 '최대치' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>황금연휴 첫날, 제주도 관광객이 가장 몰린 곳은 ‘한라산’ - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 황금연휴 첫날, 제주도 관광객이 가장 몰린 곳은 ‘한라산’ 파이낸셜뉴스입력 2020.05.01 12:38수정 2020.05.01 12:39 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 30일 4만6940명 입도…내국인, 지난해 같은 날보다 17.7% 증가연휴기간 최대 22만명 방문 예상…실내관광보다 야외활동 선호 황금연휴 첫날인 30일 한라산국립공원에는 관광객들의 행렬이 이어졌다. [사진=국립공원관리사무소]/fnDB [제주=좌승훈 기자] 제주도와 제주도관광협회는 부처님오신날부터 어린이날까지 이어지는 황금연휴(30일~5월5일)가 시작된 30일 제주를 찾은 관광객은 4만6940명(내국인 4만6759명·외국인 181명)으로 집계됐다고 밝혔다. 이는 지난 1월27일 코로나19 위기 상황이 위기에서 경계단계로 격상된 후, 가장 많이 제주를 찾은 것이다. 특히 지난해 같은 날의 관광객 수 보다도 5.6% 늘었다. 내국인만으로는 무려 17.7%나 증가했다. 이는 도가 당초 예상됐던 4만500명을 뛰어넘는 수치여서, 연휴기간 전체 관광객은 22만명 수준까지 몰릴 것으로 전망된다. 제주공항 국내선 도착장. 제주도는 30일부터 입도 검역을 강화해 입도객의 발열 감지기준을 기존 37.5도에서 37.3도로 낮췄다. 코로나19는 제주관광 여행 패턴도 바꿔 놨다 실내관광보다 자연경관 감상과 산·오름·올레 트레킹을 선호하고 있는 것으로 파악됐다. 최근 제주관광공사 설문조사 결과, 연휴기간 가장 가보고 싶은 관광지로 성산일출봉이 1위로 꼽힌 가운데, 30일 도내 5대 공영관광지인 한라산국립공원에는 4000명, 성산일출봉에는 1500명, 붉은오름(표선면 가시리)에는 700여명, 사려니숲길에는 2000명, 교래자연림 휴양림에는, 400명이 다녀간 것으로 집계됐다. 한편 도는 1일에도 4만2000명의 관광객이 제주로 올 것으로 보고 공항에서부터 강화된 발열체크와 함께 반드시 마스크를 착용해줄 것을 당부하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 소상공인·관광시설 등에 하천 점용료 감면에 나서 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 소상공인·관광시설 등에 하천 점용료 감면에 나서 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 소상공인·관광시설 등에 하천 점용료 감면에 나서 기자명 김광수 기자 입력 2020.05.07 09:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 코로나19 감염증 확산에 따른 업계 지원을 위해 하천 점용료 3개월분 감면 제주특별자치도 [시사매거진/제주=김광수 기자] 제주특별자치도는 코로나19로 경제적 어려움을 겪는 있는 개인·소상공인을 지원하기 위하여 하천 점용료 3개월분을 감면한다고 밝혔다. 하천점용료는 제주도가 지방하천 내 하천 토지와 시설물을 사용하기 위하여 하천 점용허가를 받은 자에게 1년 치를 부과·징수하는 것으로써 재해나 특별한 사정이 있을 경우 감면이 가능하도록 되어 있다. 기존에는 「하천법」상 “홍수 등 자연재해”에서만 감면받았으나 금번 코로나19에도 확대·적용하게 되어 영업상 어려움을 겪고 있는 민간 사업자에게 경제적인 부담을 줄일 수 있게 됐다. 감면 대상으로는 레저스포츠, 식당, 음식점 등 지방하천 점용 허가를 받아 이용하는 민간사업자로서 감면규모는 하천 점용료 1년 치 중 3개월 분(25%)이며 이미 부과·징수된 경우에도 실제 부과액에 대하여 소급하여 금액을 반환 받을 수 있다. 또한, 하천 및 공유수면에 위치한 전통시장에 대해서도「전통시장특별법」에 따라 화재뿐만 아니라 코로나19에도 적용하여 재해에 의해서도 사용료를 면제 받을 수 있게 됐다. 이번 하천점용료 감면은 코로나19로 인하여 경제적 직접 타격을 입은 소상공인과 자영업자의 매출 감소를 보전하기 위한 지원책으로써 감면액만큼 고정비용 부담 완화 효과가 있을 것으로 기대된다. 이중환 제주특별자치도 도민안전실장은 “코로나19 예방을 위한 ‘사회적 거리두기’로 영업상 큰 어려움을 겪고 있는 민간 사업자분들이 이번 하천점용료 감면 정책으로 조금이나마 경제적인 보탬이 되길 바란다.”고 말했다. 김광수 기자 sipong666@naver.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 소상공인, 관광시설 등에 하천 점용료 감면에 나서 &lt; 정치/행정 &lt; 기사본문 - 제주매일 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 전체기사 뉴스 정치/행정 사회/교육 경제/관광 스포츠 문화 방송/연예 생활에 필요한 법률상식만을 콕!…콕!…콕! 기획 오피니언 국제 기획특집 포토/동영상 포토 동영상 PDF 지면보기 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 로그인 회원가입 모바일웹 RSS 최종편집 2022-10-11 14:45 (화) 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 소상공인, 관광시설 등에 하천 점용료 감면에 나서 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치/행정 제주도, 소상공인, 관광시설 등에 하천 점용료 감면에 나서 기자명 허태홍 기자 입력 2020.05.06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도는 코로나19로 경제적 어려움을 겪는 있는 개인·소상공인을 지원하기 위하여 하천 점용료 3개월분을 감면한다고 6일 밝혔다. 하천점용료는 제주도가 지방하천 내 하천 토지와 시설물을 사용하기 위하여 하천 점용허가를 받은 자에게 1년 치를 부과·징수하는 것으로써 재해나 특별한 사정이 있을 경우 감면이 가능하도록 되어 있다. 감면 대상으로는 레저스포츠, 식당, 음식점 등 지방하천 점용 허가를 받아 이용하는 민간사업자로서 감면규모는 하천 점용료 1년 치 중 3개월 분(25%)이며 이미 부과·징수된 경우에도 실제 부과액에 대하여 소급하여 금액을 반환 받을 수 있다. 또한, 하천 및 공유수면에 위치한 전통시장에 대해서도 '전통시장특별법'에 따라 화재뿐만 아니라 코로나19에도 적용하여 재해에 의해서도 사용료를 면제 받을 수 있게 됐다. 허태홍 기자 black4t@jejumaeil.net 다른기사 보기 저작권자 © 제주매일 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 최신뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 서귀포시, 사무관 8명 승진 임용 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 포토뉴스 "곶자왈 공유화 기금모금 참여합시다" 제주도개발공사 상임감사에 양진철 교수 임명 경제난 속 서귀포시 읍면동 청사 무분별 신축 논란 ‘건강한 서귀포시 만들기 프로젝트’ 재정비 인기뉴스 1 “눈을 의심했다” 휘발유·실내등유 가격 차 고작 100원 2 3년 만의 '노마스크' 탐라문화제 '팡파르' 3 ‘천년의 숨결’ 제61회 탐라문화제 막내렸다 4 오영훈 제주도지사 “분산에너지 특구 지정해 달라” 5 “내가 소개하는 작은도서관” 영상공모전 7작 시상 6 다혼디배움학교 현장 여론 존중돼야 7 3년 만에 열리는 제주광어 대축제 8 한국전력 전기요금 인상에 제주 양식업계 반발 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 월광로 37 대표전화 : 064-747-8111 팩스 : 064-747-8116 청소년보호책임자 : 이기봉 법인명 : (주)엔디소프트 제호 : 제주매일 등록번호 : 제주 가 - 00011 등록일 : 2012-05-09 발행일 : 2012-05-09 발행·편집인 : 장동훈 제주매일 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주매일. All rights reserved. mail to news@jejumaeil.net 위로 전체메뉴 전체기사 제8회 지선 전체 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 정치/행정 전체 4·13 총선을 달린다 제주정치돋보기 제주도의회 제8회 지방선거 사회/교육 전체 사회일반 교육 기획 [긴급진단] 제주산돼지고기 청정 이미지 경고등 [진단] 오라동에 비친 제주 난개발의 그림자 원도심 들여다보기 경제/관광 문화 전체 Living &amp; Life 스포츠 전체 전도축구대회 전국체전 전국장애학생체육대회 전국소년체육대회 2018 평창 동계올림픽 2018 평창 동계패럴림픽 기획특집 전체 마을공동체 사업 상생과 경제활성화를 주도한다 -제주매일 ·JDC 공동기획 범도민 바다환경보전 의식제고 프로젝트- 제주도민 생존이 걸린 바다(2021) 제주바다사랑프로젝트- 제주愛 바다愛 - 제주바다를 어떻게 지킬것인가(2020) 제주형 예비 유니콘기업 발굴 육성 - 제주매일 ·JDC 공동기획 살고 싶은 제주 다문화시대, 다양성이 존중되는 제주 만들기 생활에 필요한 법률상식만을 콕!…콕!…콕! 방송/연예 국제 기자수첩 오피니언 종교 전체 제주 순례길 따라 피플 사건사고 설왕설래 포토 Times in English news 이웃소식 만화/만평 전체 시사만화 매일만평 제주매일 포커스 6.4 지방선거 전체 도지사 교육감 도의원 교육의원 브라질월드컵 마라톤 4·13 총선을 달린다 사설 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>JDC, 황금연휴 제주도 관광객 '코로나19' 확산 방지 위한 손세정제 배포 &lt; 라이프 &lt; 기사본문 - 디스커버리뉴스(DISCOVERYNEWS) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 여행/레저 국내 해외 골프 경제 숙박/교통 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 기획 문화 포토 포토 영상 기사검색 검색 로그인 회원가입 Updated2022-10-11 14:50 (화) 기사제보 독자투고 광고문의 본문영역 이전 기사보기 다음 기사보기 JDC, 황금연휴 제주도 관광객 '코로나19' 확산 방지 위한 손세정제 배포 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 JDC, 황금연휴 제주도 관광객 '코로나19' 확산 방지 위한 손세정제 배포 기자명 정기환 기자 입력 2020.05.03 13:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 도내 입도객 및 도민 대상 손세정제 10,000개 나눠 ▲ 사진= JDC는 지난달 30일부터 5월 2일까지 제주국제공항에서 황금연휴 기간 코로나19 확산 방지를 위해 입도 관광객 및 도민 등 10,000명을 대상으로 손세정제를 배포했다 © JDC 제공[투어타임즈=정기환기자] 제주국제자유도시개발센터(이사장 문대림, JDC)는 황금연휴 기간 지역사회 코로나19 확산을 방지하기 위해 손세정제 10,000개를 배포했다고 3일 밝혔다. 이달 말부터 5월 초까지 이어지는 황금 연휴 기간 약 18만명의 관광객이 제주를 찾을 것으로 전망돼 JDC는 코로나19 지역사회 전파를 차단하기 위해 손세정제 배포하는 캠페인을 추진하게 됐다. ▲ 사진= JDC는 지난달 30일부터 5월 2일까지 제주국제공항에서 황금연휴 기간 코로나19 확산 방지를 위해 입도 관광객 및 도민 등 10,000명을 대상으로 손세정제를 배포했다 © JDC 제공이번 캠페인은 지난달 30일부터 5월 2일까지 제주국제공항에서 입도 관광객 및 도민 등 10,000명을 대상으로 시행됐다. 한편, JDC는 어린이날을 맞아 도내 지역아동센터 66개소를 대상으로 간식거리를 제공하는 행사를 4일 추진할 예정이다. ▲ 사진= JDC는 지난달 30일부터 5월 2일까지 제주국제공항에서 황금연휴 기간 코로나19 확산 방지를 위해 입도 관광객 및 도민 등 10,000명을 대상으로 손세정제를 배포했다 © JDC 제공강승수 JDC 경영기획본부장은 “입도객들을 대상으로 한 손세정제 배포가 도내 코로나19 확산 방지에 도움이 되기를 바란다”며 “앞으로도 JDC는 지역사회에 다양한 나눔활동을 확대할 수 있도록 노력하겠다”고 말했다. ▲ 사진= JDC는 지난달 30일부터 5월 2일까지 제주국제공항에서 황금연휴 기간 코로나19 확산 방지를 위해 입도 관광객 및 도민 등 10,000명을 대상으로 손세정제를 배포했다 © JDC 제공&lt;정기환 기자 jeong9200@sundog.kr&gt; 정기환 기자 jeong9200@sundog.kr 다른기사 보기 저작권자 © 디스커버리뉴스(DISCOVERYNEWS) 무단전재 및 재배포 금지 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 종로구 삼일대로 461 (운현궁 SK 허브) 102동 312호 대표전화 : ☎ 070-7706-9365 (주중18시까지/토,일휴무), 070-7706-9354 팩스 : 02-749-3207 법인명 : 미디어썬 제호 : 디스커버리뉴스(DISCOVERYNEWS) 등록번호 : 서울. 아02715 등록일 : 2013-07-02 발행일 : 2013-07-10 발행·편집인 : 강성덕 편집 부국장 : 정기환 부사장 : 이명수 청소년보호책임자 : 임영규 문의 및 보도자료 : jeong9200@discoverynews.kr 디스커버리뉴스(DISCOVERYNEWS) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 디스커버리뉴스(DISCOVERYNEWS). All rights reserved. 위로 전체메뉴 전체기사 뉴스 여행/레저 전체 국내 해외 골프 경제 숙박/교통 전체 항공 열차 자동차 크루즈 호텔 리조트 사회 라이프 포토 전체 포토 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 생태관광 활성화를 위한 각종 사업 본격 시행...52억 투입 &lt; 환경 &lt; 산업 &lt; 기사본문 - NBNNEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 검색 기사검색 검색 디지털자산 산업 금융·증권 중기·벤처 건설·부동산 라이프 채널가이드 프로그램 편성표 채널안내 공지사항 전체서비스 디지털자산 산업 정책 환경 신재생에너지 전력·원자력 석유·가스 금융·증권 건설·부동산 중기·벤처 라이프 최종편집:2022-10-11 11:27 (화) 실시간 카나리아바이오, 난소암 환자 대상 글로벌 임상 3상 환자 모집 400명 돌파 한전, 퇴직자 단체 자회사에 27년간 공익사업 지시…불법파견도 성행 테라·루나 권도형, 오는 19일 여권 무효화...숨을 곳 없다 10월 11일 디지털자산 주요뉴스 투자자의 행복한 아침을 열어주는 NBNTV ‘아침의 기적 Stock &amp; Coin’ NBNTV, '마감증시 출발코인'으로 투자전략 완벽 대비 "법인세율 인하하면 GDP 10년간 연평균 1.4% 증가" 평창 알펜시아 리조트, 2022 미스코리아 대회 참가자 전원 합숙 KH그룹 필룩스유도단, 찾아가는 재능기부 행사 개최 네이버·카카오, 지난해 내부거래 1조원 넘어 로그인 광고문의 제보 사고·공지 본문영역 이전 기사보기 다음 기사보기 제주도, 생태관광 활성화를 위한 각종 사업 본격 시행...52억 투입 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 산업 환경 제주도, 생태관광 활성화를 위한 각종 사업 본격 시행...52억 투입 기자명 길윤웅 기자 입력 2020.05.10 19:36 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도가 사업비 52억원을 투입해 제주 생태관광 활성화를 위한 각종 사업을 본격 시행한다.(사진=제주도 제공) 제주도는 총 52억원을 투입해 제주 생태관광 활성화 사업을 본격 시행한다고 10일 밝혔다.도는 사업수행을 위해 우선 사단법인 생태관광협회에 생태관광 육성·지원사업을 위탁해 생태관광에 관심있는 누구나 쉽게 참여할 수 있는 서비스 체계 구축에 나선다. 지난달 '도 생태관광 육성 및 지원 조례' 개정·공포로 생태관광 인증제 추진 근거 마련으로 환경부 지정 생태관광지역인 동백동산 습지, 효돈천·하례리 마을, 저지오름·곶자왈 등에 대한 생태관광인증도 시범 도입할 예정이다..대정~남원 중산간 관광벨트 조성사업은 지난해부터 추진해 온 사업으로, 조사된 자원을 활용한 주민 주도의 시범 운영으로 주민 참여, 환경 보전, 복지 향상의 3박자가 맞는 생태관광 실현 수 있도록 추진한다는 방침이다. 박근수 도 환경보전국장은 "코로나19 상황에서 제주 생태관광이 심리적 피로감 회복과 우울감 해소 등 다양한 긍정적 효과를 가져올 것으로 기대한다"고 밝혔다.길윤웅 기자 (dodori@greendaily.co.kr) 길윤웅 기자 dodori@greendaily.co.kr 다른기사 보기 저작권자 © NBNNEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 [단독] 토스, 환전서비스 오류...25분간 1달러 1290원대로 환전 강릉 '공군기지 폭발사고' 영상 일파만파, 네티즌 진위논란 재계 비상경영 체제 돌입...줄줄이 사장단 회의 현대중공업 울산조선소, 10톤 타워크레인 전복 노현정 '내조형'이면 정현선, 리디아고는?... 현대가 며느리들의 모습 애매한 '재계 5위' ... 그 자리 놓고 각축전 전개되나 [通! 유통] 네이버 ‘지식iN’ 20주년…누적 데이터 공개 [단독] 토스, 환전서비스 오류...25분간 1달러 1290원대로 환전 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 카나리아바이오, 난소암 환자 대상 글로벌 임상 3상 환자 모집 400명 돌파 한전, 퇴직자 단체 자회사에 27년간 공익사업 지시…불법파견도 성행 테라·루나 권도형, 오는 19일 여권 무효화...숨을 곳 없다 10월 11일 디지털자산 주요뉴스 투자자의 행복한 아침을 열어주는 NBNTV ‘아침의 기적 Stock &amp; Coin’ NBNTV, '마감증시 출발코인'으로 투자전략 완벽 대비 ▪ Reader's Pickup 1 [단독] 토스, 환전서비스 오류...25분간 1달러 1290원대로 환전 2 강릉 '공군기지 폭발사고' 영상 일파만파, 네티즌 진위논란 3 재계 비상경영 체제 돌입...줄줄이 사장단 회의 4 현대중공업 울산조선소, 10톤 타워크레인 전복 5 노현정 '내조형'이면 정현선, 리디아고는?... 현대가 며느리들의 모습 ESG·CSR 하림, 소비자 봉사단&amp;대학생 서포터즈와 ‘에코 챌린지’ 캠페인 진행 SK텔레콤-환경부-서울시-커피 체인점, ‘다회용 컵 이용’ 맞손 친환경포장기술시험연구원, 과대포장 검사 전문기관으로 지정 포토·영상 여름막바지까지 안정적 전력 공급에 만전을 기한다 “폭염 속 전력수급 차질없도록” 멸종위기 참달팽이 홍도에 첫 방사 입에서 담배냄새 나지 않는 기능 적용한 ‘에쎄 이츠 딥브라운’ “바다의 상처 외면하지 마세요” 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 서울특별시 서초구 강남대로37길 49 (서초동, 애서니움빌딩) 3층 대표번호(보도국) : 02-6412-4162 대표이사·발행인 : 이경남 편집인 : 김양하 제호 : NBNNEWS 등록번호 : 서울 아 01192 등록일 : 2010-04-01 발행일 : 2010-02-01 청소년보호책임자 : 김양하 엔비엔뉴스(NBNNEWS)의 모든 콘텐츠(영상/기사/사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금지합니다. Copyright © 2022 엔비엔뉴스(NBNNEWS). All rights reserved. mail to editor@greendaily.co.kr 비투데이 위로 전체메뉴 전체기사 디지털자산 산업 전체 정책 환경 신재생에너지 전력·원자력 석유·가스 금융·증권 건설·부동산 중기·벤처 라이프 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>‘황금연휴’ 시작되자 관광객으로 꽉 찬 강원도 ‘동해바다·제주도’ 실시간 상황 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 '황금연휴' 시작되자 관광객으로 꽉 찬 강원도 '동해바다·제주도' 실시간 상황 최장 6일의 황금연휴가 시작되자 우려했던 대로 관광지에 인파가 몰렸다. 김소영 기자 입력 2020.05.01 10:04 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 황금연휴 첫날 강릉항 주차장 만차 / 뉴시스[인사이트] 김소영 기자 = '제발 놀러 오지 말아 주세요'라는 호소가 무색하게도 연휴를 맞아 주요 관광지에는 인파가 북적였다.사회적 거리두기 지침이 있지만 코로나19 사태 장기화로 수 달째 사실상 고립됐던 시민들은 날이 풀리자 저마다의 방법으로 야외에서 연휴를 즐기고 있다.제주도에는 약 18만여 명이 방문할 것으로 예상되고, 속초와 강릉 지역은 숙박시설 예약률이 97%에 육박했다.지난달 30일과 1일 해안가의 풍경은 이런 예상이 적중했다는 것을 보여줬다.초여름 날씨에 바닷가 놀러 온 관광객들 / 뉴시스부처님 오신 날이자 최장 6일의 황금연휴가 시작된 첫날인 30일 강원 강릉시 견소동 강릉항 인근에는 텐트나 돗자리를 깔고 연휴를 즐기는 관광객이 즐비했다.안목 커피거리 일대도 여행객들로 붐볐다. 인근 주차장 역시 나들이 인파가 몰고 온 차량으로 꽉 찼다.제주도 상황도 비슷했다. 제주시 협재해수욕장은 관광객들로 인산인해를 이뤘다.초여름 날씨에 충남 태안군 몽산포 해수욕장 역시 가족, 연인 단위 여행객들이 찾아왔다.한편 질병관리본부는 황금연휴에 만약 여행을 떠난다면 2m 거리두기, 마스크 착용, 손 씻기 등 방역 수칙을 철저히 지켜줄 것을 당부했다.초여름 날씨에 바닷가 놀러 온 관광객들 / 뉴시스초여름 날씨 제주, 관광객 가득한 바다충남 태안군 몽산포 해수욕장 / 뉴스1 김소영 기자 · soyoung@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>2020년 황금연휴,‘ 해외여행 대체지..황금연휴 기간 관광수익 628억 원 예상..제주도 관광지 추천 10선은? - 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media × 블록체인&amp;정책 전체 블록체인&amp;정책 블록체인&amp;산업 전체 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 전체 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 코인코드 스팟 코인니스 스팟 E&amp;경제·산업 전체 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 전체 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 전체 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 전체 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 투데이단신 전체 투데이단신 정치&amp;정책 비즈&amp;컬쳐 오늘의 데이터 분석 UPDATED. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 전체 블록체인&amp;정책 블록체인&amp;정책 블록체인&amp;산업 블록체인&amp;산업 블록체인 지식창고 블록체인&amp;마켓 마켓인사이드 프로젝트 IT 게임 인베스트뉴스 E&amp;경제·산업 증권·카드·투자 통신·IT·게임 자동차·유통·식품 건설·부동산·조선 제약·바이오·의료 은행·보험 E&amp;4차산업 사물인터넷 자율주행 드론 5G·VR·메타버스 동향및전망 스마트팩토리 E&amp;AI인공지능 동향및전망 자율주행&amp;빅데이터 AI 기술 AI 로봇 AI 쇼핑 AI 플랫폼 E&amp;핀테크·페이먼트 동향및전망 스타트업·로보어드바이저 P2P·공유경제 O2O 인터넷은행·오픈뱅킹 크라우드펀딩 페이먼트 기사검색 검색 이전 다음 2020년 황금연휴,‘ 해외여행 대체지..황금연휴 기간 관광수익 628억 원 예상..제주도 관광지 추천 10선은? 기사공유하기 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 투데이단신 비즈&amp;컬쳐 2020년 황금연휴,‘ 해외여행 대체지..황금연휴 기간 관광수익 628억 원 예상..제주도 관광지 추천 10선은? 김태연 기자 승인 2020.05.01 13:35 댓글 0 기사공유하기 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 2020년 황금연휴,‘ 해외여행 대체지..황금연휴 기간 관광수익 628억 원 예상..제주도 관광지 추천 10선은? 제주특별자치도와 제주관광공사(사장 박홍배)는 ‘2020년 황금연휴 제주여행 계획 설문조사’ 결과를 발표했다. 조사 결과, 이번 황금연휴 기간(4/30 ~ 5/5)에 제주여행을 선택한 이유는 ‘해외여행 대체지로 적절해서’가 56.1%로 가장 많은 비중을 차지하였으며, 그 다음으로 ‘청정한 자연환경‘(35.3%)의 응답률이 높았다. 이밖에도 ’관광 편의성‘(27.4%), ’전염병 안전지역‘(22.5%), ‘관광활동의 다양성’(21.4%), ‘여행비용’(20.2%) 등을 제주선택의 이유로 꼽았다. 이번 여행에서 특별히 우려되는 점으로는 ‘밀집된 공간에서의 실내감염’(67.4%)이 가장 많았으며, ‘공항/비행기/항만/선박에서의 감염 우려’(57.1%)가 그 뒤를 이었다. 이어서 ‘숙박업소 위생상태’(25.1%), ‘음식점 위생상태’(14.8%), ‘관광지 위생상태’(13.7%), ‘이동수단 위생상태’(13.2%)를 우려하고 있는 것으로 나타났다. 제주여행의 예상 체류기간은 평균 3.86일로 답했으며, 1인당 지출 비용(항공료 제외)은 평균 350,750원을 예상하는 것으로 나타났다. 이번 연휴기간 동안 ‘17만 9000명’의 관광객이 제주를 찾는다고 가정하면, 약 628억 원이 제주에서 소비될 것으로 예상된다. 주요 교통수단으로는 렌터카(89.1%)가 압도적으로 높은 수치를 기록하였으며, 버스(6.4%), 택시(2.8%), 전세버스(1.1%)가 뒤를 이었다. 여행 동반자는 가족/친지(56.8%), 연인(18.5%), 친구(15.2%), 혼자(8.4%), 직장동료(1.1%) 순으로 나타났다. 방문 예정 지역으로 성산일출봉을 선택한 비율이 53.8%로 가장 높았으며, 오름/한라산 38.5%, 우도 35.3%, 중문관광단지 34.1%, 곽지-한담해변(애월읍) 31.8%, 이중섭거리/서귀포올레시장 28.7%, 협재-금릉해변(한림읍) 26.2%, 용담해안도로 인근 25.9%, 마을관광(저지리, 가시리 등) 24.0%, 함덕해변(조천읍) 23.9%, 월정-세화해변(구좌읍) 20.5%, 표선해변(표선면) 14.6% 순으로 나타났다. 제주여행에서의 선호활동으로는 식도락(61.6%)과 자연경관 감상(58.9%)이 1, 2위를 차지했으며, 산/오름/올레 트레킹(47.8%), 호캉스(46.7%), 박물관/테마공원 방문(22.5%)가 뒤를 이었다. 예년과 달리 야외활동을 즐기려는 사람이 증가한 것이 특징이다. ‘2019년 제주 방문관광객 실태조사’ 결과, 4월, 5월 선호활동으로 각각44.0%, 46.5%로 1위를 차지한 ‘박물관/테마공원 방문’이 이번 조사에서 22.5%로 낮은 수치를 보이고, 지난해 4월, 5월 낮은 수치를 보인  ‘자연경관 감상’(4월 5.7%, 5월 12.4%)과 ‘산/오름/올레 트레킹’(4월 22.3%, 5월 18.2%)이 각각  58.9%, 47.8%의 높은 수치를 보인 것은 ‘밀집된 공간에서의 실내감염’에 대한 우려가 실외활동 선호로 이어진 것으로 분석된다. 제주관광공사 연구조사센터 관계자는 “코로나 19로 인한 밀집된 공간 기피, 야외활동 선호, 시설 위생상태 고려 등이 여행 트렌드에도 당분간 영향을 미칠 것”이라고 설명하며, “향후 변화하는 여행 트렌드를 지속적으로 진단하고 파악해 나갈 예정”이라고 밝혔다. 아래는 지난 2월에 제주관광공사가 내놓은 제주 관광 추천지 10선 내용이다. 제주관광공사(사장 박홍배)는 20일 ‘2월 제주, 먼저 온 봄기운에 마음 돌랑돌랑’이라는 테마를 주제로 자연, 축제, 관광지, 음식 등 다양한 분야에서 놓치지 말아야 할 2020년 2월 제주 관광 추천 10선을 발표했다. 1. 가장먼저 제주에서, 마음모아 봄을 열다 – 탐라국입춘굿축제, 칠머리당영등굿 제주의 봄을 여는 축제 하나, 탐라국 입춘굿 축제. 낭쉐(나무로 만든 소)를 끌며 한해의 풍년과 안녕을 기원하던 의미와 역사 담긴 이 행사는 제주도가 꼽은 올해의 최우수 축제. 본행사가 진행되는 2~4일, 제주목관아와 제주시 일대에 거리굿, 열림굿, 입춘굿이 차례로 펼쳐지며 입춘 춘첩쓰기, 솟대・전통가면 만들기 같은 체험과 민속놀이, 향토음식 나눔 등도 마련된다. 바람의 섬 제주에는 바람의 신에 대한 특별한 믿음이 전해온다. 음력 2월 초하루 서쪽해안으로 들어와 보름께 동쪽으로 나가기까지, 제주 구석구석 땅과 바다에 씨앗을 뿌리는 영등할망에게 풍요와 무사안녕을 비는 것. 그 대표격인 제주 칠머리당 영등굿은 유네스코 인류무형문화유산에 등재되어 있다. 올해 영등 드는 날 환영제는 2월 24일, 송별제는 3월 8일에 열릴 예정. 함께 봄을 부르며 더불어 풍요로워지는 특별한 시간이 곧 모두에게 다가온다. 2. 돋아난 봄기운에 두근두근 나의 봄날 – 매화축제 아직 뻣뻣한 나뭇가지를 뚫고 비죽 솟은 꽃봉오리. 그 작지만 은근하고 강한 힘이야말로 예로부터 칭송받아온 매화의 인기비결인지 모른다. 가장 먼저 봄을 가져오겠다는 듯, 추위에도 아랑곳 않고 제 길을 걷는 매화는 훈풍 먼저 일렁이는 서귀포에서부터 소식을 전해온다. 누구나 찾는 도심공원과 생태공원 산책로를 따라 스스로 핀 매화는 소박해서 친근하고, 야심찬 기획으로 2월 초순부터 이어지는 테마공원의 매화축제는 강렬하게 다가온다. 매화 흐드러진 공원에서 찾는 보물과 각종 만들기 프로그램, 먹을거리 체험도 풍성. 축제기간 입장료를 할인하는 곳도 있다. 곳에 따라 개화 시기는 제각각 다를지라도 매화가 전하는 매력만은 장소불문 차고 넘친다. 햇살 받은 꽃잎, 그윽한 매화향에 취해 사뿐 사뿐 걸으며 올 한해도 너나없이 꽃길예약. 3. 환경을 사랑할 줄 아는 특별한 사람들의 – 예래생태마을 색달동과 상예, 하예동을 관할하는 행정동 예래동은 감귤농사와 어업이 이뤄지는 농어촌 마을이자 중문관광단지가 자리한 제주관광의 중심지. 마을을 지켜준다는 사자 ‘군산’과 구시물, 애기업개돌이 마을을 굽어 살피고 해안을 따라 절경이 펼쳐지는 마을 포구에는 마을사람의 평온을 빌며 세운 명물, 진황등대도 있다. 환해장성과 당포연대 등 오랜 역사만큼 문화유적도 다양하며 대왕수천의 풍부한 물과 깨끗한 환경으로 가장 먼저 반딧불이 보호지역으로 지정되기도. 에코파티와 생태 체험 축제를 통해 자연과 문화가 살아 숨 쉬는 마을로 인정받는 지금, 찬란한 봄날의 한가운데 펼쳐질 등문화축제에서 소원 풀어낼 기대감도 조금씩 자라나기 시작한다. 마을해설사가 이끄는 투어와 자연체험장을 갖춘 생태체험관까지 예래동을 말할 때 떠오르는 것이 한둘이 아닌 건 어쩌면 자연스러운 현상일지도 4. 나랑 별 보러 가지 않을래? – 기간한정 행복을 주는 별, 노인성 아직은 차가운 밤하늘, 오리온자리 아래 시리우스를 따라 남쪽바다로 향하다 수평선 근처에서 희미한 별을 찾았다면? 다름 아닌 노인성이다. 오래도록 불려온 그 이름에는 사람이 나이가 들며 완전하고도 이상적인 인간이 되어간다는 의미가 담겨 있고 남반구에서는 흔하지만 우리나라에서는 귀하기에 길흉화복과 무병장수를 관장하고 천하태평과 복을 빌어준다고 알려져 있다. 겨울철 별자리에 속하며 11월에는 새벽녘에 보이다가 2월에서 3월 초 저녁시간에 관측 가능. 이 별을 보려면 남해안 높은 산이나 제주를 찾아야 하는데 제주에서도 서귀포지역이 노인성 관측의 최적지이며 서귀포천문과학문화관이 노인성을 관측하는 국내유일 천문대. 이 별을 함께 보고 오래도록 행복할 수 있는 기회가 바로 지금 제주 서귀포에 열려있다니 벌써부터 심장이 두근두근. 월요일 휴관, 기상에 따라 관측이 어렵거나, 조기 폐관할 수 있으니 방문 전 사전 확인 필수. 5. 이른 봄, 푸르름을 그리는 당신에게 – 대수산봉 올레 2코스의 일부인 이곳은 과거 물이 나던 산이라 하여 물뫼로 불리다가 크다를 더한 큰물뫼, 대수산봉이 되었다. 조선시대에는 봉수대가 있었다니 눈치 빠른 이들은 알아챘을까? 그만큼 멀리까지 내다보인다는 걸. 우도, 성산일출봉, 섭지코지와 지미봉, 말미오름이 보이고 근처 고성리, 오조리, 성산리의 마을 풍경도 조망 가능해 아는 사람만 아는 숨겨진 일출명소. 삼나무와 소나무로 이뤄진 숲 안에서는 겨울에도 푸릇함을 느낄 수 있고 탐방로 관리도 잘 되어 있는데다 곳곳에 쉼터와 운동기구를 구비하는 센스까지 장착! 등반에 소요되는 시간은 길지 않다. 휴식까지 넉넉잡아 한 시간, 3~40분이면 충분히 탐방가능. 여러 개의 등반코스 가운데는 계단이 있는 곳과 없는 곳, 가파름의 차이가 있고 입구에 주차장이 마련된 곳도 있다니, 미리 알아보고 형편 따라 선택하자. 6. 제주가 품고 키운 생명의 기운 찾아 – 한라수목원 죽림원, 도내 다원들 겨우내 바래지 않은 초록이 그 가치를 드러내는 2월, 남쪽나라 제주는 먼저 봄을 입는다. 도민과 관광객 모두에 인기 만점인 한라수목원에서는, 평일 오전 10시와 오후 2시  마련된 숲해설로 휴식과 정보를 함께 얻고 대나무숲 죽림원도 거닐 수 있다. 신이대, 왕대, 제주조릿대, 죽순대까지 대나무 곁 산책로를 걷다보면 마음속 비밀 혹은, 일상의 스트레스를 털어낼 수도. 제주 곳곳 차밭의 그윽한 푸르름도 이미 봄이다. 거문 오름을 등에 업은 다원에서는 정갈하게 다듬어진 차밭의 초록을 배경삼아 조용히 산책하다 사진 찍기에 그만이요 유기농 차를 맛볼 수도 있다. 1100고지 주변 한적한 다원에서 진초록 융단 위 눈이불의 장관을 감상할 수 있고 녹차밭과 미로공원을 겸한 다원에는 낮은 단계부터 높은 단계까지 수준에 따른 미로 탐험과 염소 먹이주기가 있어 어린이 동반 가족에게 더욱 매력적. 7. 옛 사람들의 삶 찾아 떠나는 시간여행 – 도내 유적지들 알고는 있을까, 우리나라에서 가장 오래된 신석기시대 문화유적이 고산리에 있다는 사실을! 세계지질공원 제주에서도 손꼽히는 지질트레일, 수월봉 품은 고산리는 지질학적 가치뿐 아니라 역사・문화적 가치도 높다. 고산리 유물은 한국 내륙에서 발견되지 않은 유물 조합상으로 후기 구석기와 초기 신석기의 연결고리이자 동북아시아의 초기 신석기문화를 살피는 훌륭한 자료. 청동기와 철기시대의 마을 모습은 삼양동에 있다. 도내 최대 규모 마을유적의 움집과 불 땐 자리, 둥그렇게 둘러앉은 마을 터부터 옛사람들의 의식주와 도구 생산 과정도 살펴보자. 모두가 언제든 찾도록 연중무휴・무료로 운영 중. 참고로 고산리와 삼양동 유적 모두 국가사적으로 지정돼 있다. 좀 더 신비로운 옛사람들의 삶을 원한다면? 탐라국 시조 삼신이 솟았다는 삼성혈이나 삼신과 삼공주의 혼례장소 혼인지를 찾아도 좋겠다. 8. 추위 녹이던 온기와 색감, 마음도 녹여 – 식물이 있는 카페 화려한 조명과 장식, 혹은 무채색의 심플함 사이 당신의 취향은 어디쯤? 그 어느 쪽도 아니라면 나무 빛 실내에 푸릇푸릇한 식물이 숨 쉬는 카페는 어떨까. 아늑하고 조용하면서도 생기를 잃지 않은 공간들이 하나 둘, 우리 마음으로 가지를 뻗어오는 중. 인류가 자연을 얼마나 사랑하는지는 식물 앞에서 한결 평온해진 자신을 발견할 때 알 수 있다. 포근한 공간 안에 긴장을 풀어놓고 자연의 기운을 받고 싶다면 가드닝 카페 혹은 유리온실 카페들로 지금 떠나자! 입안 감도는 음료의 맛에 온몸을 감싸는 식물의 온기로 훈훈함이 더해질 것 . 혹시 카페, 베이커리, 인테리어에 관심이 있다면 ‘2020 제주카페스타’를 찾아도 좋다. 제주 유일의 전시인증 카페박람회라니 취향 따라 필요한 만큼 즐기다 오자. 9. 꼼지락꼼지락, 손길 작품이 되다 – 제주감성&amp;정성 듬뿍 체험클래스 제주에 왔다가 빈손으로 돌아간다고? 놉! 제주에서의 추억과 시간, ‘제주갬성’ 기념품 하나쯤은 챙기고 싶은 마음이야 누구나 비슷하다. 도내 곳곳 소품가게를 둘러보며 고심 끝에 고를 수도 있겠지만, 조금만 더 마음을 기울이면 내 손으로 제주 기념품을 만드는 방법이 보인다. 내가 디자인하고 만드는 유리공예, 내가 짓는 돌담액자와 나만의 손글씨, 색 조합에서부터 취향 저격하는 유리알 액세서리까지. 몇 시간의 투자로 세상 어디에도 없는 나만의 기념품이 완성된단다. 직접 발품을 파는데다가 만드는 동안 몰입의 기쁨이 더해지면, 여행 뒤에도 제주에서의 기억을 더 깊고 진하게 만들어줄 것. 어쩌면, 오래도록 아끼고 사랑하게 될 나의 새 여행메이트가 여기에서 탄생할지도. 많은 공방들이 SNS를 통해 소통하니 사전 문의와 예약은 ‘필수’되시겠다. 10. 원 없이 먹어보자 제주 생선 – 생선모듬구이 해산물을 즐기지 않는 사람도 제주에 오면 회 한번쯤 먹듯, ‘육식형 인간’을 자부하는 누구라도 이곳에서만큼은 제대로 된 생선구이 한상 먹어보는 것 어떨까. 그동안의 생선구이에 대한 기억은 생선 두어 마리, 몇 조각이 전부였다고? 이제 여기서는 기대치를 조금 더 올려도 좋다. 감각적인 인테리어로 꾸며진 공간에서 코스 요리로 즐기는 생선구이집부터, 반찬과 돔베고기를 기본으로 해 계절에 맞는 모듬 생선을 쫙~ 펼쳐놓고 조금씩 맛보는 편안한 분위기의 공간도 있다. 혹시 누가 알까, 미처 몰랐던 생선 맛에 눈뜨거나 일생을 함께할 소울생선을 여기서 만나게 될 지! 고기도 먹어본 사람이 먹는다고 생선도 먹어본 사람이 먹는다는 말씀! 제주관광공사 관계자는 제주관광공사의 2020년 추천 관광 10선은 제주관광정보 사이트에서 자세히 확인할 수 있다. FINTECHPOST 저작권자 © 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 무단전재 및 재배포 금지 김태연 기자 다른기사 보기 [관련기사] 슈퍼주니어 김희철, ‘셀러비’에 림프종 소아암 어린이 응원 영상 메시지 공개 론진 “SBS 신작 드라마 ‘더 킹: 영원의 군주’ 제작 협찬” 메가박스, 4월 29일 개봉 '트롤: 월드 투어' 개봉 기념 ‘빵원 티켓 이벤트’ 실시 ‘방방콘’ 방탄소년단 지민, 레전드 솔로곡 ‘라이’ 무대에 전세계 열광! 美아마존 베스트셀러 1위 메가박스, 인기작 재상영하는 '스페셜 히어로 기획전' 29일까지 진행..‘마블’ 인기작 엄선 예스24, 부와 행운의 비밀에 대한 수만 건의 사례 분석과 성찰 담은 ‘더 해빙 The Having’ 새로운 1위 등극 레담 엔터테인먼트, 인디뮤지션 ‘혜주’, 새 싱글 앨범 ‘Moon light’ 공식 발매 바른손,영화진흥위원회 한국영화아카데미 ‘Attack on Daddy’, 제19회 트라이베카 영화제 공식 초청 예스24, 4월 2주 음반 판매순위 발표 많이 본 뉴스 1해시드, 블록체인 인재 양성소 커뮤니티 ‘프로토콜 캠프’ 3기 활동 시작 2MNB글로벌-KDE, 팝 아티스트 찰스장과 NFT 발행 3온더(Onther), 전체 인력 중 46% 이더리움 콘퍼런스 Devcon 참석 4보라네트워크, 합작 P2E 프로젝트 '보라배틀' 온보딩 발표 5오지스, BPMG와 공식 파트너십 체결하며 시너지 강화 6메타마인 재단, 글로벌 거래소 디지 파이넥스에 'MTMN' 상장 7LiveArt, 첫 NFT 시리즈 작품 ‘메타모픽 요변의 스톤 genesis’ 출시 발표 8Crurated, NFT 기술이 지원하는 배럴 조각 판매를 제공 9비피엠지, 오지스와 기술 및 사업 협력 파트너십 10글로벌 토털 골프서비스 플랫폼, ‘메타 브릿지 월렛(MetaBridge)’ 출시 최신기사 펜타브리드, 멤버십 유틸리티 NFT 프로젝트 Royal NFT Club 출범 펜타브리드, 멤버십 유틸리티 NFT 프로젝트 Royal NFT Club 출범 공일이티씨(01etc)-서울디자인재단, 2차 NFT 공모전 시작 공일이티씨(01etc)-서울디자인재단, 2차 NFT 공모전 시작 해시드 이머전트- 인도 나스콤,“인도 웹3.0 인재 규모 전세계 3위 수준” 네스트리미디어그룹, 브이티지엠피와 NFT 개발 및 컨설팅 업무협약 체결 네스트리미디어그룹, 브이티지엠피와 NFT 개발 및 컨설팅 업무협약 체결 체인저, 스위프트(Swift) 주관 글로벌 금융권 최대 축제 'Sibos(사이보스) 2022' 참가 체인저, 스위프트(Swift) 주관 글로벌 금융권 최대 축제 'Sibos(사이보스) 2022' 참가 아시아 지역 디지털 기업 연합체 DPA 출범, 2030년 한국 디지털 경제 규모 약 520억 달러 전망 아시아 지역 디지털 기업 연합체 DPA 출범, 2030년 한국 디지털 경제 규모 약 520억 달러 전망 미스블록, 메디포레치과의원과 MOU 체결 미스블록, 메디포레치과의원과 MOU 체결 EU 경제위원회, 암호화폐 법안 MiCA 승인 신문사소개 기사제보 광고문의 정정보도 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 영등포구 선유로47길 19 기사정정요청: press88only@daum.net 애드버토리얼 아티클 : 광고문의 클릭 및 작성 대표전화 : 010-3219-7524 (문자 수신용) 편집부장 조해리 제호 : 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 등록번호 : 서울 아 04281 등록일 : 2016-12-15 발행일 : 2016-12-15 발행인·편집인 : 조흥훈(Harry_cho) 청소년보호책임자 : 강민 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2016-2022 블록체인밸리::No.1 Korea Blockchain &amp; Fintech Media. All rights reserved. mail to ajuaju123@naver.com(business proposal) / 보도자료는 press88only@daum.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 생태관광 활성화 위해 52억원 투입 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 생태관광 활성화 위해 52억원 투입 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 생태관광 활성화 위해 52억원 투입 현대성 기자 승인 2020.05.10 10:52 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 동백동산 습지 생태관광 육성사업 등 생태관광 활성화에 52억원을 투입한다고 10일 밝혔다. 제주도는 생태관광지원센터를 (사)생태관광협회에 위탁해 생태관광에 관심이 있는 사람이라면 누구나 생태관광에 참여할 수 있는 서비스 체계를 구축한다. 제주도는 또 생태관광인증 시범운영을 통해 인증 절차 등 구체적 방법을 마련할 방침이다. 제주도는 생태관광 육성에 관한 사항을 심의·자문하기 위해 제2기 생태관광위원회를 지난달 30일 재구성하기도 했다. 박근수 제주도 환경보전국장은 "우수한 생태자원을 활용한 생태관광의 내실화와 저변 확대는 물론 지역주도 자립형 생태관광 기반 체계 구축에 앞장서 나가겠다"고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
   </si>
 </sst>
 </file>
@@ -428,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,7 +609,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -461,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -472,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -483,7 +642,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -504,6 +663,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -513,7 +675,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -534,6 +696,9 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
@@ -541,6 +706,327 @@
       </c>
       <c r="B11" t="s">
         <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
